--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA7EBAA-792F-4DD9-A5B6-75818E76C135}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -203,6 +204,16 @@
     <t>26.0℃以上</t>
     <rPh sb="4" eb="7">
       <t>ドイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値解析</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,9 +223,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,16 +241,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -247,29 +279,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -291,7 +457,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
   </tableColumns>
@@ -306,10 +472,24 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
+    <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB6FFE-A51B-411E-9CB4-E4787FF2761F}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -722,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <f>ROW()-ROW($B$16)</f>
         <v>1</v>
@@ -734,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18">
         <f>ROW()-ROW($B$16)</f>
         <v>2</v>
@@ -746,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19">
         <f>ROW()-ROW($B$16)</f>
         <v>3</v>
@@ -755,6 +935,78 @@
         <v>26.5</v>
       </c>
       <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="5">
+        <f>ROW()-ROW($B$22)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
+        <f>ROW()-ROW($B$22)</f>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
+        <f>ROW()-ROW($B$22)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
+        <f>ROW()-ROW($B$22)</f>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -762,9 +1014,25 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166001D0-6C37-4005-91A3-992ECF852597}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA7EBAA-792F-4DD9-A5B6-75818E76C135}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C86C17DF-2CD5-4A27-9BBC-748BFF5847D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="1.2キッチンスケールの動作検証" sheetId="2" r:id="rId2"/>
+    <sheet name="1.3畳の枚数から面積を計算するWebシステム" sheetId="3" r:id="rId3"/>
+    <sheet name="1.4まとめ買いがお得な手芸用品店" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -215,6 +217,472 @@
     <rPh sb="3" eb="5">
       <t>カイセキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キッチンスケールの動作検証</t>
+    <rPh sb="9" eb="13">
+      <t>ドウサケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1g単位で重さを計測・表示する</t>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さが2,000gを超えた場合、エラー「EEEE」を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さがマイナスの場合、エラー「EEEE」を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キッチンスケールの電源を入れた時の重さを0gとする</t>
+    <rPh sb="9" eb="11">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さ(in)</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示(expect)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果(actual)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同値分割</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値分析</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEEE</t>
+  </si>
+  <si>
+    <t>EEEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畳の枚数から面積を計算するWebシステム</t>
+    <rPh sb="0" eb="1">
+      <t>タタミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数以外の入力は考慮しない</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字・マイナス符号以外の記号文字・小数点付き数字などは入力されない</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キゴウモジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ショウスウテンツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力範囲がByte型の範囲を超えるとエラーが発生する</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-128～0の範囲を入力するとエラーが発生し、「畳数は1以上を入力してください」のエラーメッセージを表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タタミスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畳数(in)</t>
+    <rPh sb="0" eb="2">
+      <t>タタミスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「畳数は1以上を入力してください」</t>
+    <rPh sb="1" eb="3">
+      <t>タタミスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ買いがお得な手芸用品店</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>シュゲイヨウヒンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積＝1.65×畳数</t>
+    <rPh sb="0" eb="1">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タタミスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生地は10㎝単位で購入できる</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売価格＝生地の長さ×単価</t>
+    <rPh sb="0" eb="4">
+      <t>ハンバイカカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入する長さ≦3m：400円/1m</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入する長さ＞3m：350円/1m</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字以外の入力は考慮不要</t>
+    <rPh sb="0" eb="4">
+      <t>スウジイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字・ピリオド以外の記号文字は入力不可</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>キゴウモジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナスも入力不可</t>
+    <rPh sb="5" eb="9">
+      <t>ニュウリョクフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さはメートル単位で入力</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点第１位まで有効（5.35＝＞5.3）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限は0.1m</t>
+    <rPh sb="0" eb="2">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限は100.0m</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価は購入する生地の全量に1mあたりの単価が適用される</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売単価のテストケース</t>
+    <rPh sb="0" eb="4">
+      <t>ハンバイタンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さm(in)</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価(out)</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値分析</t>
+    <rPh sb="0" eb="5">
+      <t>キョウカイチブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,11 +855,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
@@ -435,6 +924,193 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -457,9 +1133,73 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B29:F39" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BA80F107-5FC6-4D89-B7D4-46C51104FB68}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5FA8836B-D20B-46EA-8192-8C10835ACE10}" name="畳数(in)"/>
+    <tableColumn id="3" xr3:uid="{D7D07AA3-913C-41C0-BE1B-CF8842D4EC37}" name="表示メッセージ(out)"/>
+    <tableColumn id="4" xr3:uid="{0B3F83A8-A889-4095-AF12-3E496E841F0A}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{C54EBBA6-3F73-4005-9A83-5529D9749FBF}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92B7CBFA-6561-40AE-B9FE-8464A2DD9618}" name="テーブル9" displayName="テーブル9" ref="B29:F35" totalsRowShown="0">
+  <autoFilter ref="B29:F35" xr:uid="{92B7CBFA-6561-40AE-B9FE-8464A2DD9618}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BE6F6845-98B0-4AE4-8028-FB8074B6769F}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{116F8EA2-6E93-4D9F-ADAA-32FE1BA8F37C}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{D6781A88-2C17-4833-A000-7A5A46904C7D}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B3514335-D03B-4CE6-AB55-5FEE8932DF6B}" name="テーブル10" displayName="テーブル10" ref="B22:F26" totalsRowShown="0">
+  <autoFilter ref="B22:F26" xr:uid="{B3514335-D03B-4CE6-AB55-5FEE8932DF6B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6186A583-74C8-4904-804E-BD2468504FD0}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B2A18C3B-E87D-4E2C-838B-D6C9186023C4}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{3D19FAA4-918F-450B-941E-CA789149A463}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="B39:F48" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C4675328-CBE7-48D0-85AA-0A55526EF0AA}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$39)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{169777BE-BAC1-4410-ADBE-A08DB56EC5FC}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{BCAB804B-98E3-4348-9063-9A9505AC4534}" name="判定"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,7 +1212,7 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
@@ -482,14 +1222,110 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
-    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B30:F37" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6219FAF4-DA54-4BE7-97B9-07D36F876D0E}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$30)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D9D17648-3E52-4DBD-BB1E-67C5668B8499}" name="表示メッセージ(out)"/>
+    <tableColumn id="4" xr3:uid="{B2E41ED7-0E9D-4D8A-A56B-56F10FD44B1F}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{09DFD186-C2B6-401A-9DE1-EE48A0F1CC16}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FFC8EF0B-3BF9-49E9-A812-9B3DEC1DAECD}" name="テーブル3" displayName="テーブル3" ref="B11:F14" totalsRowShown="0">
+  <autoFilter ref="B11:F14" xr:uid="{FFC8EF0B-3BF9-49E9-A812-9B3DEC1DAECD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E1DBBE8F-D62D-4B2C-9F50-02BB67EB559F}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{509FF755-38B7-4704-8133-8203910F9DC6}" name="重さ(in)"/>
+    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{81D872D7-0C78-48BE-8E0D-F49E5ADEA4C4}" name="結果(actual)"/>
+    <tableColumn id="5" xr3:uid="{D7E810B1-C407-4ADD-AE73-D746F35BAF37}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7CBCC3C9-0205-41E8-9B96-ADDC3255B934}" name="テーブル5" displayName="テーブル5" ref="B17:F21" totalsRowShown="0">
+  <autoFilter ref="B17:F21" xr:uid="{7CBCC3C9-0205-41E8-9B96-ADDC3255B934}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B0CCFD63-F151-4AE5-9856-A549B2201106}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$17)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{96075308-0A9A-4771-9918-E4375128EC9C}" name="重さ(in)"/>
+    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{71723126-7D38-4715-8425-73F196F29CE3}" name="結果(actual)"/>
+    <tableColumn id="5" xr3:uid="{FE403B6F-9D92-46B1-AC0A-084378B3C35E}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="B24:F31" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0BA013CA-4130-4F4E-A721-13292B5A4570}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F79312B0-D1C4-4792-BB9D-228ACEDBF5C7}" name="重さ(in)"/>
+    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{2934A5AF-26C9-4011-B6C3-A0F20ADE55B8}" name="結果(actual)"/>
+    <tableColumn id="5" xr3:uid="{826AF35A-3D39-41A3-8B7C-56914B52731B}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1BF94367-D7AD-49AE-B7E2-4524E3095220}" name="テーブル7" displayName="テーブル7" ref="B19:F25" totalsRowShown="0">
+  <autoFilter ref="B19:F25" xr:uid="{1BF94367-D7AD-49AE-B7E2-4524E3095220}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8F31326F-67DC-4E83-BAB9-95D3F9865252}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$19)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DAE6151D-0488-4B6F-9285-847C93630FE6}" name="畳数(in)"/>
+    <tableColumn id="3" xr3:uid="{2B200F8E-BE43-4A45-9E3B-033DE340ED32}" name="表示メッセージ(out)"/>
+    <tableColumn id="4" xr3:uid="{5261B419-8447-4879-814C-EABA04624E1F}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{9FE6947D-6B53-4C81-81C8-52A244C17DC2}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3A8D7B7A-9784-49E6-8F5D-711CB1E0A50F}" name="テーブル8" displayName="テーブル8" ref="B12:F16" totalsRowShown="0">
+  <autoFilter ref="B12:F16" xr:uid="{3A8D7B7A-9784-49E6-8F5D-711CB1E0A50F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{31F74724-F413-4EFF-BBCE-986388D888F4}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{71CFCE00-D5F7-4BC4-BEF8-BF79942B29D6}" name="畳数(in)"/>
+    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{19A8E784-4DCC-42E2-AA06-D92334451B79}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{E283681A-8B7C-4EAC-BA5F-E90D7A3D592E}" name="判定"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -792,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB6FFE-A51B-411E-9CB4-E4787FF2761F}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1010,7 +1846,418 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>ROW()-ROW($B$30)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>ROW()-ROW($B$30)</f>
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>ROW()-ROW($B$30)</f>
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>ROW()-ROW($B$30)</f>
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>ROW()-ROW($B$30)</f>
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f>ROW()-ROW($B$30)</f>
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f>ROW()-ROW($B$30)</f>
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166001D0-6C37-4005-91A3-992ECF852597}">
+  <dimension ref="B2:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f>ROW()-ROW($B$11)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f>ROW()-ROW($B$11)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f>ROW()-ROW($B$11)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f>ROW()-ROW($B$17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f>ROW()-ROW($B$17)</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f>ROW()-ROW($B$17)</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f>ROW()-ROW($B$17)</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2001</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="5">
+        <f>ROW()-ROW($B$24)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" ref="B26:B31" si="0">ROW()-ROW($B$24)</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2001</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>2100</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+    <dataRefs count="2">
+      <dataRef ref="B11:F14" sheet="1.2キッチンスケールの動作検証"/>
+      <dataRef ref="B17:F21" sheet="1.2キッチンスケールの動作検証"/>
+    </dataRefs>
+  </dataConsolidate>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1022,17 +2269,769 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166001D0-6C37-4005-91A3-992ECF852597}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80209265-2AEB-41AE-B297-9E96E727670C}">
+  <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f>ROW()-ROW($B$12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>-130</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" ref="B14:B16" si="0">ROW()-ROW($B$12)</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>-10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>130</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f>ROW()-ROW($B$19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" ref="B21:B25" si="1">ROW()-ROW($B$19)</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>-128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <f>127*1.65</f>
+        <v>209.54999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>ROW()-ROW($B$29)</f>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>-130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>ROW()-ROW($B$29)</f>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>-129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>ROW()-ROW($B$29)</f>
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>-128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>ROW()-ROW($B$29)</f>
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>-10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>ROW()-ROW($B$29)</f>
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>ROW()-ROW($B$29)</f>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f>ROW()-ROW($B$29)</f>
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f>ROW()-ROW($B$29)</f>
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>127</v>
+      </c>
+      <c r="D37">
+        <v>209.55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f>ROW()-ROW($B$29)</f>
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f>ROW()-ROW($B$29)</f>
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E20C50-1858-496F-A98D-B605D67274A1}">
+  <dimension ref="B2:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f>ROW()-ROW($B$22)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f>ROW()-ROW($B$22)</f>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f>ROW()-ROW($B$22)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f>ROW()-ROW($B$22)</f>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>150</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>ROW()-ROW($B$29)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>ROW()-ROW($B$29)</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>ROW()-ROW($B$29)</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>ROW()-ROW($B$29)</f>
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>ROW()-ROW($B$29)</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>100</v>
+      </c>
+      <c r="D34" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>ROW()-ROW($B$29)</f>
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <f>ROW()-ROW($B$39)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <f>ROW()-ROW($B$39)</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <f>ROW()-ROW($B$39)</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <f>ROW()-ROW($B$39)</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <f>ROW()-ROW($B$39)</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <f>ROW()-ROW($B$39)</f>
+        <v>6</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <f>ROW()-ROW($B$39)</f>
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>100</v>
+      </c>
+      <c r="D46" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <f>ROW()-ROW($B$39)</f>
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <f>ROW()-ROW($B$39)</f>
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
+        <v>150</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C86C17DF-2CD5-4A27-9BBC-748BFF5847D8}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB23E9C-BDAE-46A2-A566-E01DEDDF085A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
     <sheet name="1.2キッチンスケールの動作検証" sheetId="2" r:id="rId2"/>
     <sheet name="1.3畳の枚数から面積を計算するWebシステム" sheetId="3" r:id="rId3"/>
     <sheet name="1.4まとめ買いがお得な手芸用品店" sheetId="4" r:id="rId4"/>
+    <sheet name="1.5年齢によって変わる入園料金" sheetId="5" r:id="rId5"/>
+    <sheet name="1.6BUG QUEST★盾と一緒に装備できる武器" sheetId="7" r:id="rId6"/>
+    <sheet name="1.xひな形" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +40,104 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9BA03CEC-C163-46BF-9CD8-ED68D6079654}</author>
+    <author>tc={FDA5FABD-FD92-4C35-9C19-14B8C2B41123}</author>
+    <author>tc={916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}</author>
+    <author>tc={BFF08FF6-AA40-4B1D-B311-8D77C670311E}</author>
+    <author>tc={7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}</author>
+    <author>tc={6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}</author>
+    <author>tc={94E2C060-A305-4E32-A37A-9686CB1EF86C}</author>
+  </authors>
+  <commentList>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{9BA03CEC-C163-46BF-9CD8-ED68D6079654}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</t>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="1" shapeId="0" xr:uid="{FDA5FABD-FD92-4C35-9C19-14B8C2B41123}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</t>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="2" shapeId="0" xr:uid="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{BFF08FF6-AA40-4B1D-B311-8D77C670311E}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    同値分割のC列（入力列）から右側をSPILLで取得</t>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="4" shapeId="0" xr:uid="{7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    同値分割と境界値分析の結果をつなげて１つの範囲にする</t>
+      </text>
+    </comment>
+    <comment ref="S28" authorId="5" shapeId="0" xr:uid="{6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    １つの範囲につなげたテストケースを入力の順にソートする</t>
+      </text>
+    </comment>
+    <comment ref="I32" authorId="6" shapeId="0" xr:uid="{94E2C060-A305-4E32-A37A-9686CB1EF86C}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    境界値分析のC列（入力列）から右側をSPILLで取得</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -683,6 +782,437 @@
   </si>
   <si>
     <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢によって変わる入園料金</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ニュウエンリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>年齢(in)</t>
+  </si>
+  <si>
+    <t>年齢(in)</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入園料金(out)</t>
+  </si>
+  <si>
+    <t>入園料金(out)</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウエンリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数以外の入力は考慮不要</t>
+    <rPh sb="0" eb="4">
+      <t>セイスウイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字・符号以外の記号文字・小数点付き数字等は入力不可</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>フゴウイガイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>キゴウモジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>スウジトウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ニュウリョクフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUG QUEST★盾と一緒に装備できる武器</t>
+  </si>
+  <si>
+    <t>1.x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひな形</t>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力条件・上下限値など</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジョウカゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足りない仕様がある場合は仕様作成者に問い合わせる必要がある</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>シヨウサクセイシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備可能な武器は表1のとおり</t>
+    <rPh sb="0" eb="4">
+      <t>ソウビカノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手に何も装備していない場合はどの武器でも装備可能</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ソウビカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾を装備している場合は、両手持ちタイプの武器を装備できず「装備できません」のメッセージが表示される</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾を装備している場合は、片手持ちタイプの武器は何も表示されずに装備できる</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カタテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾は片手持ちタイプ</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カタテモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備できる盾は１つだけ</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器は装備していない</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾のみ装備している</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盾のみ装備している状態で武器を装備した際のメッセージの表示有無のテストケースを同値分割法で作成する</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ヒョウジウム</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ドウチブンカツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備する武器(in)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表1</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けやきのぼう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片手持ち</t>
+    <rPh sb="0" eb="3">
+      <t>カタテモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可能</t>
+    <rPh sb="0" eb="3">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニンジンの短剣</t>
+    <rPh sb="5" eb="7">
+      <t>タンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きこりの大斧</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手持ち</t>
+    <rPh sb="0" eb="3">
+      <t>リョウテモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍のやり</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草薙の剣</t>
+    <rPh sb="0" eb="2">
+      <t>クサナギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツルギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備できません</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -693,7 +1223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +1248,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -739,7 +1293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -815,13 +1369,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,16 +1476,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="43">
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -910,17 +1586,117 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -949,17 +1725,29 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -988,14 +1776,11 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1005,23 +1790,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1049,11 +1822,13 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1063,10 +1838,36 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
@@ -1129,11 +1930,215 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 円形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C94381-1F08-4C28-BCD3-DCB61B5B398B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4998720" y="861060"/>
+          <a:ext cx="3116580" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71084"/>
+            <a:gd name="adj2" fmla="val -31618"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力の上限が仕様にないので確認しなければならない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="思考の吹き出し: 雲形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E889C758-3A9A-4456-94A1-9A8220DA2F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2583180"/>
+          <a:ext cx="2125980" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>120</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を上限値とする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矢印: 下 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C626DA0-CD73-4F9E-8480-28537F7FF263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="1874520"/>
+          <a:ext cx="701040" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="平田 真也" id="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" userId="9b8b2f54c7041b8e" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
   </tableColumns>
@@ -1142,7 +2147,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="B29:F39" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BA80F107-5FC6-4D89-B7D4-46C51104FB68}" name="No">
@@ -1164,8 +2169,8 @@
     <tableColumn id="1" xr3:uid="{BE6F6845-98B0-4AE4-8028-FB8074B6769F}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{116F8EA2-6E93-4D9F-ADAA-32FE1BA8F37C}" name="結果"/>
     <tableColumn id="5" xr3:uid="{D6781A88-2C17-4833-A000-7A5A46904C7D}" name="判定"/>
   </tableColumns>
@@ -1180,8 +2185,8 @@
     <tableColumn id="1" xr3:uid="{6186A583-74C8-4904-804E-BD2468504FD0}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{B2A18C3B-E87D-4E2C-838B-D6C9186023C4}" name="結果"/>
     <tableColumn id="5" xr3:uid="{3D19FAA4-918F-450B-941E-CA789149A463}" name="判定"/>
   </tableColumns>
@@ -1190,16 +2195,95 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="B39:F48" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C4675328-CBE7-48D0-85AA-0A55526EF0AA}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$39)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{169777BE-BAC1-4410-ADBE-A08DB56EC5FC}" name="結果"/>
     <tableColumn id="5" xr3:uid="{BCAB804B-98E3-4348-9063-9A9505AC4534}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}" name="テーブル15" displayName="テーブル15" ref="B9:F15" totalsRowShown="0">
+  <autoFilter ref="B9:F15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BFDC78DA-3EF6-4750-A7E0-2B0AABC4CFDD}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{81244594-4A37-403B-8628-FD22ADBD5174}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{995D4DCE-2F3E-440C-94F2-4F0613DB5210}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20AE3A02-E893-4DC5-8463-F5B8AD9DB41E}" name="テーブル17" displayName="テーブル17" ref="B18:F28" totalsRowShown="0">
+  <autoFilter ref="B18:F28" xr:uid="{20AE3A02-E893-4DC5-8463-F5B8AD9DB41E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BCBDAF1B-BCAC-4972-95BD-4F14A5F0FF9B}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EFCEBDBE-FB9F-4675-B1BD-72D43E5EE5EB}" name="年齢(in)"/>
+    <tableColumn id="3" xr3:uid="{55F695FD-E5D7-4036-85BF-66168773723B}" name="入園料金(out)"/>
+    <tableColumn id="4" xr3:uid="{0F7DC8D9-A8E1-49CC-B982-2D7376C8754A}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{371CEEB8-7B44-41E4-8F6D-277A48F9E892}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}" name="テーブル21" displayName="テーブル21" ref="B16:E21" totalsRowShown="0">
+  <autoFilter ref="B16:E21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D3F9664B-51A0-417A-B26E-6C60C80C3202}" name="攻撃力"/>
+    <tableColumn id="3" xr3:uid="{A7C46260-D239-4D29-8978-A34E4DA44070}" name="タイプ"/>
+    <tableColumn id="4" xr3:uid="{0D1E9AB4-D1BE-4CA0-A332-03F49C266C01}" name="強化"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="7">
+  <autoFilter ref="B24:F26" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="6">
+      <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="1">
+      <calculatedColumnFormula>B17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{96861E92-0225-4479-A692-5D33F84EB792}" name="表示メッセージ(out)"/>
+    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:F15" totalsRowShown="0">
+  <autoFilter ref="B14:F15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{763BF1E5-2F59-4EC9-8FB8-5023F6C6B75D}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{DE7E6610-523B-4690-B713-A12AB641CAD8}" name="判定"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,7 +2296,7 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="41"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
@@ -1222,11 +2306,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
-    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
@@ -1236,13 +2320,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="B30:F37" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6219FAF4-DA54-4BE7-97B9-07D36F876D0E}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{D9D17648-3E52-4DBD-BB1E-67C5668B8499}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{B2E41ED7-0E9D-4D8A-A56B-56F10FD44B1F}" name="結果"/>
     <tableColumn id="5" xr3:uid="{09DFD186-C2B6-401A-9DE1-EE48A0F1CC16}" name="判定"/>
@@ -1259,7 +2343,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$11)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{509FF755-38B7-4704-8133-8203910F9DC6}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{81D872D7-0C78-48BE-8E0D-F49E5ADEA4C4}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{D7E810B1-C407-4ADD-AE73-D746F35BAF37}" name="判定"/>
   </tableColumns>
@@ -1275,7 +2359,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{96075308-0A9A-4771-9918-E4375128EC9C}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{71723126-7D38-4715-8425-73F196F29CE3}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{FE403B6F-9D92-46B1-AC0A-084378B3C35E}" name="判定"/>
   </tableColumns>
@@ -1284,14 +2368,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="B24:F31" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0BA013CA-4130-4F4E-A721-13292B5A4570}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F79312B0-D1C4-4792-BB9D-228ACEDBF5C7}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{2934A5AF-26C9-4011-B6C3-A0F20ADE55B8}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{826AF35A-3D39-41A3-8B7C-56914B52731B}" name="判定"/>
   </tableColumns>
@@ -1323,7 +2407,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{71CFCE00-D5F7-4BC4-BEF8-BF79942B29D6}" name="畳数(in)"/>
-    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{19A8E784-4DCC-42E2-AA06-D92334451B79}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E283681A-8B7C-4EAC-BA5F-E90D7A3D592E}" name="判定"/>
   </tableColumns>
@@ -1626,6 +2710,34 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F18" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{9BA03CEC-C163-46BF-9CD8-ED68D6079654}">
+    <text>下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</text>
+  </threadedComment>
+  <threadedComment ref="F24" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{FDA5FABD-FD92-4C35-9C19-14B8C2B41123}">
+    <text>下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</text>
+  </threadedComment>
+  <threadedComment ref="B28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
+  </threadedComment>
+  <threadedComment ref="I28" dT="2022-02-25T14:10:01.23" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{BFF08FF6-AA40-4B1D-B311-8D77C670311E}">
+    <text>同値分割のC列（入力列）から右側をSPILLで取得</text>
+  </threadedComment>
+  <threadedComment ref="N28" dT="2022-02-25T14:10:46.62" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}">
+    <text>同値分割と境界値分析の結果をつなげて１つの範囲にする</text>
+  </threadedComment>
+  <threadedComment ref="S28" dT="2022-02-25T14:11:35.49" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}">
+    <text>１つの範囲につなげたテストケースを入力の順にソートする</text>
+  </threadedComment>
+  <threadedComment ref="I32" dT="2022-02-25T14:09:47.92" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{94E2C060-A305-4E32-A37A-9686CB1EF86C}">
+    <text>境界値分析のC列（入力列）から右側をSPILLで取得</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB6FFE-A51B-411E-9CB4-E4787FF2761F}">
   <dimension ref="B2:F37"/>
@@ -1634,14 +2746,14 @@
       <selection activeCell="B30" sqref="B30:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6">
       <c r="B2">
         <v>1.1000000000000001</v>
       </c>
@@ -1649,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1679,7 +2791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1690,7 +2802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -1701,27 +2813,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +2850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6">
       <c r="B17">
         <f>ROW()-ROW($B$16)</f>
         <v>1</v>
@@ -1750,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18">
         <f>ROW()-ROW($B$16)</f>
         <v>2</v>
@@ -1762,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6">
       <c r="B19">
         <f>ROW()-ROW($B$16)</f>
         <v>3</v>
@@ -1774,12 +2886,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23" s="5">
         <f>ROW()-ROW($B$22)</f>
         <v>1</v>
@@ -1810,7 +2922,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24" s="10">
         <f>ROW()-ROW($B$22)</f>
         <v>2</v>
@@ -1822,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25" s="10">
         <f>ROW()-ROW($B$22)</f>
         <v>3</v>
@@ -1834,7 +2946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6">
       <c r="B26" s="10">
         <f>ROW()-ROW($B$22)</f>
         <v>4</v>
@@ -1846,12 +2958,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
@@ -1868,9 +2980,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" ref="B31:B37" si="0">ROW()-ROW($B$30)</f>
         <v>1</v>
       </c>
       <c r="C31" s="2">
@@ -1880,9 +2992,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6">
       <c r="B32">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C32" s="2">
@@ -1892,9 +3004,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4">
       <c r="B33">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C33" s="2">
@@ -1904,9 +3016,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4">
       <c r="B34">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C34" s="2">
@@ -1916,9 +3028,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C35" s="2">
@@ -1928,9 +3040,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C36" s="2">
@@ -1940,9 +3052,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4">
       <c r="B37">
-        <f>ROW()-ROW($B$30)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C37" s="2">
@@ -1973,7 +3085,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="5.09765625" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" customWidth="1"/>
@@ -1982,7 +3094,7 @@
     <col min="6" max="6" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6">
       <c r="B2">
         <v>1.2</v>
       </c>
@@ -1990,37 +3102,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +3149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6">
       <c r="B12">
         <f>ROW()-ROW($B$11)</f>
         <v>1</v>
@@ -2049,7 +3161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6">
       <c r="B13">
         <f>ROW()-ROW($B$11)</f>
         <v>2</v>
@@ -2061,7 +3173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6">
       <c r="B14">
         <f>ROW()-ROW($B$11)</f>
         <v>3</v>
@@ -2073,12 +3185,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2095,7 +3207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18">
         <f>ROW()-ROW($B$17)</f>
         <v>1</v>
@@ -2107,7 +3219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6">
       <c r="B19">
         <f>ROW()-ROW($B$17)</f>
         <v>2</v>
@@ -2119,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6">
       <c r="B20">
         <f>ROW()-ROW($B$17)</f>
         <v>3</v>
@@ -2131,7 +3243,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21">
         <f>ROW()-ROW($B$17)</f>
         <v>4</v>
@@ -2143,12 +3255,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24" s="7" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25" s="5">
         <f>ROW()-ROW($B$24)</f>
         <v>1</v>
@@ -2179,7 +3291,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6">
       <c r="B26">
         <f t="shared" ref="B26:B31" si="0">ROW()-ROW($B$24)</f>
         <v>2</v>
@@ -2191,7 +3303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2203,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2215,7 +3327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2227,7 +3339,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2239,7 +3351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2252,7 +3364,7 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+  <dataConsolidate topLabels="1" link="1">
     <dataRefs count="2">
       <dataRef ref="B11:F14" sheet="1.2キッチンスケールの動作検証"/>
       <dataRef ref="B17:F21" sheet="1.2キッチンスケールの動作検証"/>
@@ -2273,17 +3385,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80209265-2AEB-41AE-B297-9E96E727670C}">
   <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="9.19921875" customWidth="1"/>
     <col min="4" max="4" width="32.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6">
       <c r="B2">
         <v>1.3</v>
       </c>
@@ -2291,42 +3403,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6">
       <c r="B8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6">
       <c r="B9" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +3455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6">
       <c r="B13">
         <f>ROW()-ROW($B$12)</f>
         <v>1</v>
@@ -2355,7 +3467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6">
       <c r="B14">
         <f t="shared" ref="B14:B16" si="0">ROW()-ROW($B$12)</f>
         <v>2</v>
@@ -2367,7 +3479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2379,7 +3491,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2391,12 +3503,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +3525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6">
       <c r="B20">
         <f>ROW()-ROW($B$19)</f>
         <v>1</v>
@@ -2425,7 +3537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21">
         <f t="shared" ref="B21:B25" si="1">ROW()-ROW($B$19)</f>
         <v>2</v>
@@ -2437,7 +3549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2449,7 +3561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2461,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2474,7 +3586,7 @@
         <v>209.54999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2486,12 +3598,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6">
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -2508,9 +3620,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" ref="B30:B39" si="2">ROW()-ROW($B$29)</f>
         <v>1</v>
       </c>
       <c r="C30">
@@ -2520,9 +3632,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C31">
@@ -2532,9 +3644,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6">
       <c r="B32">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C32">
@@ -2544,9 +3656,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4">
       <c r="B33">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C33">
@@ -2556,9 +3668,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4">
       <c r="B34">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C34">
@@ -2568,9 +3680,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C35">
@@ -2580,9 +3692,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C36">
@@ -2592,9 +3704,9 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4">
       <c r="B37">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C37">
@@ -2604,9 +3716,9 @@
         <v>209.55</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4">
       <c r="B38">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C38">
@@ -2616,9 +3728,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4">
       <c r="B39">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C39">
@@ -2643,17 +3755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E20C50-1858-496F-A98D-B605D67274A1}">
   <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="10.796875" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>1.4</v>
       </c>
@@ -2661,82 +3773,82 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -2753,7 +3865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23">
         <f>ROW()-ROW($B$22)</f>
         <v>1</v>
@@ -2765,7 +3877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6">
       <c r="B24">
         <f>ROW()-ROW($B$22)</f>
         <v>2</v>
@@ -2777,7 +3889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25">
         <f>ROW()-ROW($B$22)</f>
         <v>3</v>
@@ -2789,7 +3901,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6">
       <c r="B26">
         <f>ROW()-ROW($B$22)</f>
         <v>4</v>
@@ -2801,12 +3913,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2823,9 +3935,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" ref="B30:B35" si="0">ROW()-ROW($B$29)</f>
         <v>1</v>
       </c>
       <c r="C30" s="2">
@@ -2835,9 +3947,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C31" s="2">
@@ -2847,9 +3959,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6">
       <c r="B32">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C32" s="2">
@@ -2859,9 +3971,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6">
       <c r="B33">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C33" s="2">
@@ -2871,9 +3983,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6">
       <c r="B34">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C34" s="2">
@@ -2883,9 +3995,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6">
       <c r="B35">
-        <f>ROW()-ROW($B$29)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C35" s="2">
@@ -2895,12 +4007,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
         <v>3</v>
       </c>
@@ -2917,9 +4029,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6">
       <c r="B40">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" ref="B40:B48" si="1">ROW()-ROW($B$39)</f>
         <v>1</v>
       </c>
       <c r="C40" s="2">
@@ -2929,9 +4041,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6">
       <c r="B41">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C41" s="2">
@@ -2941,9 +4053,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6">
       <c r="B42">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C42" s="2">
@@ -2953,9 +4065,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6">
       <c r="B43">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C43" s="2">
@@ -2965,9 +4077,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6">
       <c r="B44">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C44" s="2">
@@ -2977,9 +4089,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6">
       <c r="B45">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C45" s="2">
@@ -2989,9 +4101,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6">
       <c r="B46">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C46" s="2">
@@ -3001,9 +4113,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6">
       <c r="B47">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C47" s="2">
@@ -3013,9 +4125,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6">
       <c r="B48">
-        <f>ROW()-ROW($B$39)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C48" s="2">
@@ -3034,4 +4146,2065 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112BD5B-EFC2-4AFE-BFFC-24E9B0CF4275}">
+  <dimension ref="B2:V47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="9" max="22" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <f>ROW()-ROW($B$9)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>-5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <f>ROW()-ROW($B$9)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <f>ROW()-ROW($B$9)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <f>ROW()-ROW($B$9)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="21">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <f>ROW()-ROW($B$9)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="21">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <f>ROW()-ROW($B$9)</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="21">
+        <v>140</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19">
+        <f>ROW()-ROW($B$18)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20">
+        <f>ROW()-ROW($B$18)</f>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21">
+        <f>ROW()-ROW($B$18)</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22">
+        <f>ROW()-ROW($B$18)</f>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23">
+        <f>ROW()-ROW($B$18)</f>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24">
+        <f>ROW()-ROW($B$18)</f>
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25">
+        <f>ROW()-ROW($B$18)</f>
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26">
+        <f>ROW()-ROW($B$18)</f>
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27">
+        <f>ROW()-ROW($B$18)</f>
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>120</v>
+      </c>
+      <c r="D27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28">
+        <f>ROW()-ROW($B$18)</f>
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="22" cm="1">
+        <f t="array" ref="B32:B47">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(N32)),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="23" cm="1">
+        <f t="array" ref="C32:F47">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N32),_xlfn.ANCHORARRAY($N32) $N:$N)</f>
+        <v>-5</v>
+      </c>
+      <c r="D32" s="23" t="str">
+        <v>-</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21" cm="1">
+        <f t="array" ref="I32:L37">$C$10:$F15</f>
+        <v>-5</v>
+      </c>
+      <c r="J32" t="str">
+        <v>-</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" cm="1">
+        <f t="array" ref="N32:Q47">_xlfn.ANCHORARRAY($I32):_xlfn.ANCHORARRAY($I38)</f>
+        <v>-5</v>
+      </c>
+      <c r="O32" t="str">
+        <v>-</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32" cm="1">
+        <f t="array" ref="S32:V47">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N32),_xlfn.ANCHORARRAY($N32) $N:$N)</f>
+        <v>-5</v>
+      </c>
+      <c r="T32" t="str">
+        <v>-</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="25">
+        <v>2</v>
+      </c>
+      <c r="C33" s="26">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>無料</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <v>無料</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+      <c r="T33" t="str">
+        <v>-</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="22">
+        <v>3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23" t="str">
+        <v>無料</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>500</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>500</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="str">
+        <v>無料</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="25">
+        <v>4</v>
+      </c>
+      <c r="C35" s="26">
+        <v>3</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <v>無料</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>1000</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>1000</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35" t="str">
+        <v>無料</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="22">
+        <v>5</v>
+      </c>
+      <c r="C36" s="23">
+        <v>5</v>
+      </c>
+      <c r="D36" s="23" t="str">
+        <v>無料</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>1500</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>20</v>
+      </c>
+      <c r="O36">
+        <v>1500</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36" t="str">
+        <v>無料</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="25">
+        <v>6</v>
+      </c>
+      <c r="C37" s="26">
+        <v>6</v>
+      </c>
+      <c r="D37" s="26">
+        <v>500</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>140</v>
+      </c>
+      <c r="J37" t="str">
+        <v>-</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>140</v>
+      </c>
+      <c r="O37" t="str">
+        <v>-</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>500</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="22">
+        <v>7</v>
+      </c>
+      <c r="C38" s="23">
+        <v>10</v>
+      </c>
+      <c r="D38" s="23">
+        <v>500</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" cm="1">
+        <f t="array" ref="I38:L47">$C$19:$F28</f>
+        <v>-1</v>
+      </c>
+      <c r="J38" t="str">
+        <v>-</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38" t="str">
+        <v>-</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>500</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="25">
+        <v>8</v>
+      </c>
+      <c r="C39" s="26">
+        <v>12</v>
+      </c>
+      <c r="D39" s="26">
+        <v>500</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="str">
+        <v>無料</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <v>無料</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <v>500</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="22">
+        <v>9</v>
+      </c>
+      <c r="C40" s="23">
+        <v>13</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40" t="str">
+        <v>無料</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40" t="str">
+        <v>無料</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <v>1000</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="25">
+        <v>10</v>
+      </c>
+      <c r="C41" s="26">
+        <v>15</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>500</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>15</v>
+      </c>
+      <c r="T41">
+        <v>1000</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="22">
+        <v>11</v>
+      </c>
+      <c r="C42" s="23">
+        <v>17</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>500</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>17</v>
+      </c>
+      <c r="T42">
+        <v>1000</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="25">
+        <v>12</v>
+      </c>
+      <c r="C43" s="26">
+        <v>18</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>1000</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+      <c r="T43">
+        <v>1500</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="5">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>17</v>
+      </c>
+      <c r="O44">
+        <v>1000</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>20</v>
+      </c>
+      <c r="T44">
+        <v>1500</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="25">
+        <v>14</v>
+      </c>
+      <c r="C45" s="26">
+        <v>120</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="26">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <v>1500</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>18</v>
+      </c>
+      <c r="O45">
+        <v>1500</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>120</v>
+      </c>
+      <c r="T45">
+        <v>1500</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="5">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3">
+        <v>121</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>120</v>
+      </c>
+      <c r="J46">
+        <v>1500</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>120</v>
+      </c>
+      <c r="O46">
+        <v>1500</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>121</v>
+      </c>
+      <c r="T46" t="str">
+        <v>-</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" s="25">
+        <v>16</v>
+      </c>
+      <c r="C47" s="26">
+        <v>140</v>
+      </c>
+      <c r="D47" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>121</v>
+      </c>
+      <c r="J47" t="str">
+        <v>-</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>121</v>
+      </c>
+      <c r="O47" t="str">
+        <v>-</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>140</v>
+      </c>
+      <c r="T47" t="str">
+        <v>-</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F61E24B-FFCD-40C4-B059-A3FA8CE802F4}">
+  <dimension ref="B2:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="20">
+        <f>ROW()-ROW($B$24)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="31" t="str">
+        <f t="shared" ref="C25" si="0">B17</f>
+        <v>けやきのぼう</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="20">
+        <f t="shared" ref="B26" si="1">ROW()-ROW($B$24)</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="37" t="str">
+        <f>B19</f>
+        <v>きこりの大斧</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="2"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB7C1E-F495-4E25-94DF-5F1EEF638EDD}">
+  <dimension ref="B2:V40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <f>ROW()-ROW($B$14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22"/>
+    <row r="20" spans="2:22">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" t="str">
+        <f>B$14</f>
+        <v>No</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:F21" si="0">C$14</f>
+        <v>長さm(in)</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>単価(out)</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>結果</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>判定</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22">
+        <f>ROW()-ROW($B$21)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22"/>
+    <row r="26" spans="2:22">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" t="str">
+        <f>B$14</f>
+        <v>No</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:F27" si="1">C$14</f>
+        <v>長さm(in)</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>単価(out)</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>結果</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>判定</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="20" cm="1">
+        <f t="array" ref="B28:B34">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(N28)),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" cm="1">
+        <f t="array" ref="C28:F34">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N28),_xlfn.ANCHORARRAY($N28) $N:$N)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21" cm="1">
+        <f t="array" ref="I28:L31">$C$15:$F18</f>
+        <v>0</v>
+      </c>
+      <c r="J28" t="str">
+        <v>-</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28" cm="1">
+        <f t="array" ref="N28:Q34">_xlfn.ANCHORARRAY($I28):_xlfn.ANCHORARRAY($I32)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
+        <v>-</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28" cm="1">
+        <f t="array" ref="S28:V34">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N28),_xlfn.ANCHORARRAY($N28) $N:$N)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" t="str">
+        <v>-</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="20">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="20">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="20">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="20">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" cm="1">
+        <f t="array" ref="I32:L34">$C$22:$F24</f>
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <v>-</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="str">
+        <v>-</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="str">
+        <v>-</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="20">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="20">
+        <v>7</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B28:F100">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B28)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB23E9C-BDAE-46A2-A566-E01DEDDF085A}"/>
+  <xr:revisionPtr revIDLastSave="797" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753EB295-07B2-4719-9C01-3AD8562B2A72}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="1.4まとめ買いがお得な手芸用品店" sheetId="4" r:id="rId4"/>
     <sheet name="1.5年齢によって変わる入園料金" sheetId="5" r:id="rId5"/>
     <sheet name="1.6BUG QUEST★盾と一緒に装備できる武器" sheetId="7" r:id="rId6"/>
-    <sheet name="1.xひな形" sheetId="6" r:id="rId7"/>
+    <sheet name="1.7BUG QUEST★武器の強化判定" sheetId="8" r:id="rId7"/>
+    <sheet name="1.8BMI値で栄養状態を判定" sheetId="9" r:id="rId8"/>
+    <sheet name="1.xひな形" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,6 +43,80 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={73E9A5BC-B76B-4DC1-8F23-4FE4B56C27BD}</author>
+    <author>tc={AC2855C6-4B30-42A7-B0E8-2F08C6F53137}</author>
+    <author>tc={88D7799A-0D02-435E-A6AD-28F57F865144}</author>
+    <author>tc={7C9E25A7-4F29-49F3-9DB6-2E9CDE9B2F15}</author>
+    <author>tc={DF72613A-C0B0-4B35-B794-C87532943AE6}</author>
+    <author>tc={AC461716-5032-4387-ACA1-212608EA8E3A}</author>
+    <author>tc={4AE046B0-7201-41E1-9350-4136D9A95841}</author>
+  </authors>
+  <commentList>
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{73E9A5BC-B76B-4DC1-8F23-4FE4B56C27BD}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</t>
+      </text>
+    </comment>
+    <comment ref="I32" authorId="1" shapeId="0" xr:uid="{AC2855C6-4B30-42A7-B0E8-2F08C6F53137}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    同値分割のC列（入力列）から右側をSPILLで取得</t>
+      </text>
+    </comment>
+    <comment ref="N32" authorId="2" shapeId="0" xr:uid="{88D7799A-0D02-435E-A6AD-28F57F865144}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    同値分割と境界値分析の結果をつなげて１つの範囲にする</t>
+      </text>
+    </comment>
+    <comment ref="S32" authorId="3" shapeId="0" xr:uid="{7C9E25A7-4F29-49F3-9DB6-2E9CDE9B2F15}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    １つの範囲につなげたテストケースを入力の順にソートする</t>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="4" shapeId="0" xr:uid="{DF72613A-C0B0-4B35-B794-C87532943AE6}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</t>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="5" shapeId="0" xr:uid="{AC461716-5032-4387-ACA1-212608EA8E3A}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    境界値分析のC列（入力列）から右側をSPILLで取得</t>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="6" shapeId="0" xr:uid="{4AE046B0-7201-41E1-9350-4136D9A95841}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9BA03CEC-C163-46BF-9CD8-ED68D6079654}</author>
@@ -137,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="137">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -875,17 +951,6 @@
     <t>BUG QUEST★盾と一緒に装備できる武器</t>
   </si>
   <si>
-    <t>1.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひな形</t>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入出力条件・上下限値など</t>
     <rPh sb="0" eb="3">
       <t>ニュウシュツリョク</t>
@@ -1212,6 +1277,411 @@
     <t>装備できません</t>
     <rPh sb="0" eb="2">
       <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUG QUEST★武器の強化判定</t>
+  </si>
+  <si>
+    <t>強化可能な武器を強化すると「武器の攻撃力が上がりました」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化不可能な武器を強化しようとすると「武器の強化に失敗しました」と表示される</t>
+    <rPh sb="0" eb="5">
+      <t>キョウカフカノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化済みの武器を強化しようとすると「これ以上この武器の強化はできません」と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器強化が成功か失敗かのテストをするとき、同値分割法を用いて武器の同値クラスを作成し、テストケースを作成する</t>
+    <rPh sb="0" eb="4">
+      <t>ブキキョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>ドウチブンカツホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器(in)</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器の強化に失敗しました</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器の攻撃力が上がりました</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化対象として選択できる武器は1回につき１つだけ</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍のやり（未強化）</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミキョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>龍のやり（強化済み）</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キョウカズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以上この武器の強化はできません</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI判定基準は表1のとおり</t>
+    <rPh sb="3" eb="7">
+      <t>ハンテイキジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値以外の入力は考慮不要</t>
+    <rPh sb="0" eb="4">
+      <t>スウチイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力は小数点第1位まで有効（20.85＝20.8）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０以下・100以上はエラー</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力はBMI値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI指標</t>
+    <rPh sb="3" eb="5">
+      <t>シヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養状態</t>
+    <rPh sb="0" eb="4">
+      <t>エイヨウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.5未満</t>
+    <rPh sb="4" eb="6">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痩せ</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.5以上、24.9以下</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通体重</t>
+    <rPh sb="0" eb="4">
+      <t>フツウタイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.0以上、29.9以下</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前肥満</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30.0以上、34.9以下</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥満（１度）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒマン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35.0以上、39.9以下</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40.0以上</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥満（２度）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒマン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥満（３度）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒマン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI値(in)</t>
+  </si>
+  <si>
+    <t>BMI値(in)</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄養状態(out)</t>
+  </si>
+  <si>
+    <t>栄養状態(out)</t>
+    <rPh sb="0" eb="4">
+      <t>エイヨウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前肥満</t>
+    <rPh sb="0" eb="3">
+      <t>マエヒマン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1223,7 +1693,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1735,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1424,7 +1903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,11 +2018,35 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1552,17 +2055,22 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1572,18 +2080,49 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1602,6 +2141,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1642,6 +2182,39 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1661,23 +2234,10 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2138,7 +2698,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
   </tableColumns>
@@ -2147,7 +2707,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="B29:F39" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BA80F107-5FC6-4D89-B7D4-46C51104FB68}" name="No">
@@ -2169,8 +2729,8 @@
     <tableColumn id="1" xr3:uid="{BE6F6845-98B0-4AE4-8028-FB8074B6769F}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{116F8EA2-6E93-4D9F-ADAA-32FE1BA8F37C}" name="結果"/>
     <tableColumn id="5" xr3:uid="{D6781A88-2C17-4833-A000-7A5A46904C7D}" name="判定"/>
   </tableColumns>
@@ -2185,8 +2745,8 @@
     <tableColumn id="1" xr3:uid="{6186A583-74C8-4904-804E-BD2468504FD0}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{B2A18C3B-E87D-4E2C-838B-D6C9186023C4}" name="結果"/>
     <tableColumn id="5" xr3:uid="{3D19FAA4-918F-450B-941E-CA789149A463}" name="判定"/>
   </tableColumns>
@@ -2195,14 +2755,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="B39:F48" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C4675328-CBE7-48D0-85AA-0A55526EF0AA}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$39)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{169777BE-BAC1-4410-ADBE-A08DB56EC5FC}" name="結果"/>
     <tableColumn id="5" xr3:uid="{BCAB804B-98E3-4348-9063-9A9505AC4534}" name="判定"/>
   </tableColumns>
@@ -2217,8 +2777,8 @@
     <tableColumn id="1" xr3:uid="{BFDC78DA-3EF6-4750-A7E0-2B0AABC4CFDD}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{81244594-4A37-403B-8628-FD22ADBD5174}" name="結果"/>
     <tableColumn id="5" xr3:uid="{995D4DCE-2F3E-440C-94F2-4F0613DB5210}" name="判定"/>
   </tableColumns>
@@ -2246,7 +2806,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}" name="テーブル21" displayName="テーブル21" ref="B16:E21" totalsRowShown="0">
   <autoFilter ref="B16:E21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{D3F9664B-51A0-417A-B26E-6C60C80C3202}" name="攻撃力"/>
     <tableColumn id="3" xr3:uid="{A7C46260-D239-4D29-8978-A34E4DA44070}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{0D1E9AB4-D1BE-4CA0-A332-03F49C266C01}" name="強化"/>
@@ -2256,34 +2816,47 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B24:F26" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="14">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="13">
       <calculatedColumnFormula>B17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{96861E92-0225-4479-A692-5D33F84EB792}" name="表示メッセージ(out)"/>
-    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:F15" totalsRowShown="0">
-  <autoFilter ref="B14:F15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E4BF0604-3001-441A-97F6-E1F0884B8D27}" name="テーブル151715" displayName="テーブル151715" ref="B21:F24" totalsRowShown="0">
+  <autoFilter ref="B21:F24" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No">
-      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DC9EE3DF-4847-4649-A7EE-1A4431FAB1D1}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{763BF1E5-2F59-4EC9-8FB8-5023F6C6B75D}" name="結果"/>
-    <tableColumn id="5" xr3:uid="{DE7E6610-523B-4690-B713-A12AB641CAD8}" name="判定"/>
+    <tableColumn id="2" xr3:uid="{4265BB58-BEBA-4D5A-8B3D-CE3187FFB7DB}" name="武器(in)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4CE6A195-265A-46BC-9C41-0A1DE8E2274B}" name="表示メッセージ(out)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D255E15A-6819-4F40-93B5-974389E52EBD}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{5084DA63-EB37-402C-805D-363A5D93F97D}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}" name="テーブル2120" displayName="テーブル2120" ref="B13:E18" totalsRowShown="0">
+  <autoFilter ref="B13:E18" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6B4F6ADF-1B1D-4B89-9945-20A438440773}" name="アイテム" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{31CE3399-4AF4-48D9-923E-CA2D7E3D70D8}" name="攻撃力"/>
+    <tableColumn id="3" xr3:uid="{E9DF4822-BC30-4BC0-BED5-CC54930E8BA8}" name="タイプ"/>
+    <tableColumn id="4" xr3:uid="{94493923-6A2A-4DB0-9BC4-41F76361DEBE}" name="強化"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2296,7 +2869,7 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="48"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
@@ -2305,12 +2878,74 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{24F9A8E5-263F-4F09-9078-358BA363219F}" name="テーブル151721" displayName="テーブル151721" ref="B22:F30" totalsRowShown="0">
+  <autoFilter ref="B22:F30" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{395E5B1F-A5B7-4AD6-A65B-A477AD459BB4}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{105EB7F9-C940-43D1-ADD8-32ECF3C773A3}" name="BMI値(in)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{11CBAD7C-4702-490B-80EC-CA3462575581}" name="栄養状態(out)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1D1E3A7E-48B0-4C5F-A545-D5D687E461EA}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{EF4F5822-B55E-4B6B-ABD7-50EE301E4436}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}" name="テーブル23" displayName="テーブル23" ref="B13:D19" totalsRowShown="0">
+  <autoFilter ref="B13:D19" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AF6DDE1E-CF43-49D4-97B6-49E34850C1EA}" name="No" dataDxfId="3">
+      <calculatedColumnFormula>ROW()-ROW($B$13)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7F999DC9-E061-425F-8136-7F66B608A65A}" name="BMI指標"/>
+    <tableColumn id="3" xr3:uid="{5FD8A4E8-EE53-407D-8BAD-09EB09FFE642}" name="栄養状態"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{1D349301-55EA-47C5-85F6-128676CED22A}" name="テーブル24" displayName="テーブル24" ref="B33:F47" totalsRowShown="0">
+  <autoFilter ref="B33:F47" xr:uid="{1D349301-55EA-47C5-85F6-128676CED22A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AA77D6D0-5222-48F7-A196-82993F9B6B18}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$33)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4E586B48-5EF5-420F-B862-6463A9BC37B8}" name="BMI値(in)"/>
+    <tableColumn id="3" xr3:uid="{C5ACC54D-3A9C-4BA2-90D6-0970C1CCEAE1}" name="栄養状態(out)"/>
+    <tableColumn id="4" xr3:uid="{4563D69C-0F21-437B-9AEB-EBECE79A1F42}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{5A951A56-2FCE-42B9-BB3F-D5DFB33E1D65}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:F15" totalsRowShown="0">
+  <autoFilter ref="B14:F15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{763BF1E5-2F59-4EC9-8FB8-5023F6C6B75D}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{DE7E6610-523B-4690-B713-A12AB641CAD8}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
-    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
@@ -2320,13 +2955,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="B30:F37" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6219FAF4-DA54-4BE7-97B9-07D36F876D0E}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="40"/>
     <tableColumn id="3" xr3:uid="{D9D17648-3E52-4DBD-BB1E-67C5668B8499}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{B2E41ED7-0E9D-4D8A-A56B-56F10FD44B1F}" name="結果"/>
     <tableColumn id="5" xr3:uid="{09DFD186-C2B6-401A-9DE1-EE48A0F1CC16}" name="判定"/>
@@ -2343,7 +2978,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$11)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{509FF755-38B7-4704-8133-8203910F9DC6}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="39"/>
     <tableColumn id="4" xr3:uid="{81D872D7-0C78-48BE-8E0D-F49E5ADEA4C4}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{D7E810B1-C407-4ADD-AE73-D746F35BAF37}" name="判定"/>
   </tableColumns>
@@ -2359,7 +2994,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{96075308-0A9A-4771-9918-E4375128EC9C}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{71723126-7D38-4715-8425-73F196F29CE3}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{FE403B6F-9D92-46B1-AC0A-084378B3C35E}" name="判定"/>
   </tableColumns>
@@ -2368,14 +3003,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="B24:F31" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0BA013CA-4130-4F4E-A721-13292B5A4570}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F79312B0-D1C4-4792-BB9D-228ACEDBF5C7}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{2934A5AF-26C9-4011-B6C3-A0F20ADE55B8}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{826AF35A-3D39-41A3-8B7C-56914B52731B}" name="判定"/>
   </tableColumns>
@@ -2407,7 +3042,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{71CFCE00-D5F7-4BC4-BEF8-BF79942B29D6}" name="畳数(in)"/>
-    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{19A8E784-4DCC-42E2-AA06-D92334451B79}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E283681A-8B7C-4EAC-BA5F-E90D7A3D592E}" name="判定"/>
   </tableColumns>
@@ -2712,6 +3347,34 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F30" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{73E9A5BC-B76B-4DC1-8F23-4FE4B56C27BD}">
+    <text>下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</text>
+  </threadedComment>
+  <threadedComment ref="I32" dT="2022-02-25T14:10:01.23" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{AC2855C6-4B30-42A7-B0E8-2F08C6F53137}">
+    <text>同値分割のC列（入力列）から右側をSPILLで取得</text>
+  </threadedComment>
+  <threadedComment ref="N32" dT="2022-02-25T14:10:46.62" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{88D7799A-0D02-435E-A6AD-28F57F865144}">
+    <text>同値分割と境界値分析の結果をつなげて１つの範囲にする</text>
+  </threadedComment>
+  <threadedComment ref="S32" dT="2022-02-25T14:11:35.49" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{7C9E25A7-4F29-49F3-9DB6-2E9CDE9B2F15}">
+    <text>１つの範囲につなげたテストケースを入力の順にソートする</text>
+  </threadedComment>
+  <threadedComment ref="F40" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{DF72613A-C0B0-4B35-B794-C87532943AE6}">
+    <text>下に行挿入して作る
+作成したらI列以降のスピル範囲を調整する</text>
+  </threadedComment>
+  <threadedComment ref="I40" dT="2022-02-25T14:09:47.92" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{AC461716-5032-4387-ACA1-212608EA8E3A}">
+    <text>境界値分析のC列（入力列）から右側をSPILLで取得</text>
+  </threadedComment>
+  <threadedComment ref="B51" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{4AE046B0-7201-41E1-9350-4136D9A95841}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="F18" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{9BA03CEC-C163-46BF-9CD8-ED68D6079654}">
     <text>下に行挿入して作る
 作成したらI列以降のスピル範囲を調整する</text>
@@ -4210,7 +4873,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" ref="B10:B15" si="0">ROW()-ROW($B$9)</f>
         <v>1</v>
       </c>
       <c r="C10" s="21">
@@ -4222,7 +4885,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" s="21">
@@ -4234,7 +4897,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="21">
@@ -4246,7 +4909,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="21">
@@ -4258,7 +4921,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="21">
@@ -4270,7 +4933,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15">
-        <f>ROW()-ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="21">
@@ -4304,7 +4967,7 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" ref="B19:B28" si="1">ROW()-ROW($B$18)</f>
         <v>1</v>
       </c>
       <c r="C19" s="21">
@@ -4316,7 +4979,7 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C20">
@@ -4328,7 +4991,7 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C21">
@@ -4340,7 +5003,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C22">
@@ -4352,7 +5015,7 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C23">
@@ -4364,7 +5027,7 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C24">
@@ -4376,7 +5039,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C25">
@@ -4388,7 +5051,7 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C26">
@@ -4400,7 +5063,7 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C27">
@@ -4412,7 +5075,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28">
-        <f>ROW()-ROW($B$18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C28">
@@ -5314,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F61E24B-FFCD-40C4-B059-A3FA8CE802F4}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5340,47 +6003,47 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -5388,91 +6051,91 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -5485,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>16</v>
@@ -5522,7 +6185,7 @@
         <v>きこりの大斧</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -5636,11 +6299,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E945C0-CB87-4E9C-BD99-026B1B1BBB46}">
+  <dimension ref="B2:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>1.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <f>ROW()-ROW($B$21)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <f>ROW()-ROW($B$21)</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <f>ROW()-ROW($B$21)</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B27:F93">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B27)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7875D-6D18-4021-8C23-96B122A48FF1}">
+  <dimension ref="B2:V72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <v>BMI値で栄養状態を判定</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.8">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="29">
+        <f>ROW()-ROW($B$13)</f>
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23">
+        <f>ROW()-ROW($B$22)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24">
+        <f>ROW()-ROW($B$22)</f>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25">
+        <f>ROW()-ROW($B$22)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26">
+        <f>ROW()-ROW($B$22)</f>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>27</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27">
+        <f>ROW()-ROW($B$22)</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28">
+        <f>ROW()-ROW($B$22)</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29">
+        <f>ROW()-ROW($B$22)</f>
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="25">
+        <f>ROW()-ROW($B$22)</f>
+        <v>8</v>
+      </c>
+      <c r="C30" s="43">
+        <v>110</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="21" cm="1">
+        <f t="array" ref="I32:L39">$C$23:$F30</f>
+        <v>-10</v>
+      </c>
+      <c r="J32" t="str">
+        <v>-</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" cm="1">
+        <f t="array" ref="N32:Q53">_xlfn.ANCHORARRAY($I32):_xlfn.ANCHORARRAY($I40)</f>
+        <v>-10</v>
+      </c>
+      <c r="O32" t="str">
+        <v>-</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32" cm="1">
+        <f t="array" ref="S32:V53">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N32),_xlfn.ANCHORARRAY($N32) $N:$N)</f>
+        <v>-10</v>
+      </c>
+      <c r="T32" t="str">
+        <v>-</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33">
+        <v>18</v>
+      </c>
+      <c r="J33" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>18</v>
+      </c>
+      <c r="O33" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="str">
+        <v>-</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34">
+        <f>ROW()-ROW($B$33)</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>20</v>
+      </c>
+      <c r="O34" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0.1</v>
+      </c>
+      <c r="T34" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35">
+        <f>ROW()-ROW($B$33)</f>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="J35" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>27</v>
+      </c>
+      <c r="O35" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>18</v>
+      </c>
+      <c r="T35" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36">
+        <f>ROW()-ROW($B$33)</f>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+      <c r="J36" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>32</v>
+      </c>
+      <c r="O36" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="T36" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37">
+        <f>ROW()-ROW($B$33)</f>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>18.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>37</v>
+      </c>
+      <c r="O37" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>18.5</v>
+      </c>
+      <c r="T37" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38">
+        <f>ROW()-ROW($B$33)</f>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>24.9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38">
+        <v>42</v>
+      </c>
+      <c r="J38" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>42</v>
+      </c>
+      <c r="O38" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>20</v>
+      </c>
+      <c r="T38" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39">
+        <f>ROW()-ROW($B$33)</f>
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39">
+        <v>110</v>
+      </c>
+      <c r="J39" t="str">
+        <v>-</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>110</v>
+      </c>
+      <c r="O39" t="str">
+        <v>-</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>24.9</v>
+      </c>
+      <c r="T39" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40">
+        <f>ROW()-ROW($B$33)</f>
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>29.9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="2" cm="1">
+        <f t="array" ref="I40:L53">$C$34:$F47</f>
+        <v>0</v>
+      </c>
+      <c r="J40" t="str">
+        <v>-</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <v>-</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>25</v>
+      </c>
+      <c r="T40" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41">
+        <f>ROW()-ROW($B$33)</f>
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
+      <c r="J41" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.1</v>
+      </c>
+      <c r="O41" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>27</v>
+      </c>
+      <c r="T41" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42">
+        <f>ROW()-ROW($B$33)</f>
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>34.9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J42" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O42" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>29.9</v>
+      </c>
+      <c r="T42" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43">
+        <f>ROW()-ROW($B$33)</f>
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43">
+        <v>18.5</v>
+      </c>
+      <c r="J43" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>18.5</v>
+      </c>
+      <c r="O43" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>30</v>
+      </c>
+      <c r="T43" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44">
+        <f>ROW()-ROW($B$33)</f>
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>39.9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44">
+        <v>24.9</v>
+      </c>
+      <c r="J44" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>24.9</v>
+      </c>
+      <c r="O44" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>32</v>
+      </c>
+      <c r="T44" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45">
+        <f>ROW()-ROW($B$33)</f>
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+      <c r="O45" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>34.9</v>
+      </c>
+      <c r="T45" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46">
+        <f>ROW()-ROW($B$33)</f>
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>99.9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46">
+        <v>29.9</v>
+      </c>
+      <c r="J46" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>29.9</v>
+      </c>
+      <c r="O46" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>35</v>
+      </c>
+      <c r="T46" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47">
+        <f>ROW()-ROW($B$33)</f>
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>30</v>
+      </c>
+      <c r="O47" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>37</v>
+      </c>
+      <c r="T47" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="I48">
+        <v>34.9</v>
+      </c>
+      <c r="J48" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>34.9</v>
+      </c>
+      <c r="O48" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>39.9</v>
+      </c>
+      <c r="T48" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>35</v>
+      </c>
+      <c r="O49" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>40</v>
+      </c>
+      <c r="T49" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50">
+        <v>39.9</v>
+      </c>
+      <c r="J50" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>39.9</v>
+      </c>
+      <c r="O50" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>42</v>
+      </c>
+      <c r="T50" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="20" cm="1">
+        <f t="array" ref="B51:B72">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(N32)),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="20" cm="1">
+        <f t="array" ref="C51:F72">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N32),_xlfn.ANCHORARRAY($N32) $N:$N)</f>
+        <v>-10</v>
+      </c>
+      <c r="D51" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>40</v>
+      </c>
+      <c r="J51" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>40</v>
+      </c>
+      <c r="O51" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>99.9</v>
+      </c>
+      <c r="T51" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="20">
+        <v>2</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0</v>
+      </c>
+      <c r="D52" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>99.9</v>
+      </c>
+      <c r="J52" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>99.9</v>
+      </c>
+      <c r="O52" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>100</v>
+      </c>
+      <c r="T52" t="str">
+        <v>-</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="20">
+        <v>3</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="20" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" t="str">
+        <v>-</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="str">
+        <v>-</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>110</v>
+      </c>
+      <c r="T53" t="str">
+        <v>-</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="20">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20">
+        <v>18</v>
+      </c>
+      <c r="D54" s="20" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="20">
+        <v>5</v>
+      </c>
+      <c r="C55" s="20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D55" s="20" t="str">
+        <v>痩せ</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="20">
+        <v>6</v>
+      </c>
+      <c r="C56" s="20">
+        <v>18.5</v>
+      </c>
+      <c r="D56" s="20" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="20">
+        <v>7</v>
+      </c>
+      <c r="C57" s="20">
+        <v>20</v>
+      </c>
+      <c r="D57" s="20" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="20">
+        <v>8</v>
+      </c>
+      <c r="C58" s="20">
+        <v>24.9</v>
+      </c>
+      <c r="D58" s="20" t="str">
+        <v>普通体重</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="20">
+        <v>9</v>
+      </c>
+      <c r="C59" s="20">
+        <v>25</v>
+      </c>
+      <c r="D59" s="20" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="B60" s="20">
+        <v>10</v>
+      </c>
+      <c r="C60" s="20">
+        <v>27</v>
+      </c>
+      <c r="D60" s="20" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="E60" s="20">
+        <v>0</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="20">
+        <v>11</v>
+      </c>
+      <c r="C61" s="20">
+        <v>29.9</v>
+      </c>
+      <c r="D61" s="20" t="str">
+        <v>前肥満</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="20">
+        <v>12</v>
+      </c>
+      <c r="C62" s="20">
+        <v>30</v>
+      </c>
+      <c r="D62" s="20" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="20">
+        <v>13</v>
+      </c>
+      <c r="C63" s="20">
+        <v>32</v>
+      </c>
+      <c r="D63" s="20" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>34.9</v>
+      </c>
+      <c r="D64" t="str">
+        <v>肥満（１度）</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>37</v>
+      </c>
+      <c r="D66" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>39.9</v>
+      </c>
+      <c r="D67" t="str">
+        <v>肥満（２度）</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>42</v>
+      </c>
+      <c r="D69" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>99.9</v>
+      </c>
+      <c r="D70" t="str">
+        <v>肥満（３度）</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71" t="str">
+        <v>-</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>110</v>
+      </c>
+      <c r="D72" t="str">
+        <v>-</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B51:F123">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B51)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB7C1E-F495-4E25-94DF-5F1EEF638EDD}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5650,11 +8260,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <v>BMI値で栄養状態を判定</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -5664,12 +8276,12 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:6">

--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="797" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753EB295-07B2-4719-9C01-3AD8562B2A72}"/>
+  <xr:revisionPtr revIDLastSave="1084" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0869C1-3CE8-4EFF-8982-7A04BBC04088}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,11 @@
     <sheet name="1.6BUG QUEST★盾と一緒に装備できる武器" sheetId="7" r:id="rId6"/>
     <sheet name="1.7BUG QUEST★武器の強化判定" sheetId="8" r:id="rId7"/>
     <sheet name="1.8BMI値で栄養状態を判定" sheetId="9" r:id="rId8"/>
-    <sheet name="1.xひな形" sheetId="6" r:id="rId9"/>
+    <sheet name="1.9肉屋の特売日" sheetId="15" r:id="rId9"/>
+    <sheet name="1.10肉屋の特売日~A社のソースコード" sheetId="11" r:id="rId10"/>
+    <sheet name="1.11肉屋の特売日~B社のソースコード" sheetId="13" r:id="rId11"/>
+    <sheet name="1.12配達便の料金体系" sheetId="14" r:id="rId12"/>
+    <sheet name="1.xひな形" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,34 +123,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9BA03CEC-C163-46BF-9CD8-ED68D6079654}</author>
-    <author>tc={FDA5FABD-FD92-4C35-9C19-14B8C2B41123}</author>
-    <author>tc={916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}</author>
-    <author>tc={BFF08FF6-AA40-4B1D-B311-8D77C670311E}</author>
-    <author>tc={7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}</author>
-    <author>tc={6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}</author>
-    <author>tc={94E2C060-A305-4E32-A37A-9686CB1EF86C}</author>
+    <author>tc={A9C0D972-1121-40EE-8A46-1537999C8C80}</author>
   </authors>
   <commentList>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{9BA03CEC-C163-46BF-9CD8-ED68D6079654}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    下に行挿入して作る
-作成したらI列以降のスピル範囲を調整する</t>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="1" shapeId="0" xr:uid="{FDA5FABD-FD92-4C35-9C19-14B8C2B41123}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    下に行挿入して作る
-作成したらI列以降のスピル範囲を調整する</t>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="2" shapeId="0" xr:uid="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{A9C0D972-1121-40EE-8A46-1537999C8C80}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,36 +134,58 @@
     100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
       </text>
     </comment>
-    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{BFF08FF6-AA40-4B1D-B311-8D77C670311E}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0A33482B-909B-49A7-8C1B-EEC22CF43FBB}</author>
+  </authors>
+  <commentList>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{0A33482B-909B-49A7-8C1B-EEC22CF43FBB}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
-    同値分割のC列（入力列）から右側をSPILLで取得</t>
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
       </text>
     </comment>
-    <comment ref="N28" authorId="4" shapeId="0" xr:uid="{7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8A40F7FB-1A70-4127-97BE-4707112D82A1}</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
-    同値分割と境界値分析の結果をつなげて１つの範囲にする</t>
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
       </text>
     </comment>
-    <comment ref="S28" authorId="5" shapeId="0" xr:uid="{6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
-    １つの範囲につなげたテストケースを入力の順にソートする</t>
-      </text>
-    </comment>
-    <comment ref="I32" authorId="6" shapeId="0" xr:uid="{94E2C060-A305-4E32-A37A-9686CB1EF86C}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    境界値分析のC列（入力列）から右側をSPILLで取得</t>
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
       </text>
     </comment>
   </commentList>
@@ -213,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="147">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -1682,6 +1684,139 @@
     <t>前肥満</t>
     <rPh sb="0" eb="3">
       <t>マエヒマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日(in)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引率(out)</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売日・割引率の条件は1.9と同一</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイビ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数で渡せるのは日付のみなので無効値のチェックは不要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値分析はソースコードの構造上if文での等価判定のみなので不要</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウゾウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>トウカハンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同地分割結果＝テストケースとなる</t>
+    <rPh sb="0" eb="4">
+      <t>ドウチブンカツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売日は１日～５日または28日～30日</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付以外の入力は考慮不要</t>
+    <rPh sb="0" eb="4">
+      <t>ヒヅケイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閏年かどうかは関係ない</t>
+    <rPh sb="0" eb="2">
+      <t>ウルウドシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1693,7 +1828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,8 +1886,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1769,6 +1913,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1903,7 +2053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2042,11 +2192,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -2067,6 +2223,122 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2111,12 +2383,6 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2698,7 +2964,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="79"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
   </tableColumns>
@@ -2707,7 +2973,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="B29:F39" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BA80F107-5FC6-4D89-B7D4-46C51104FB68}" name="No">
@@ -2729,8 +2995,8 @@
     <tableColumn id="1" xr3:uid="{BE6F6845-98B0-4AE4-8028-FB8074B6769F}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="58"/>
     <tableColumn id="4" xr3:uid="{116F8EA2-6E93-4D9F-ADAA-32FE1BA8F37C}" name="結果"/>
     <tableColumn id="5" xr3:uid="{D6781A88-2C17-4833-A000-7A5A46904C7D}" name="判定"/>
   </tableColumns>
@@ -2745,8 +3011,8 @@
     <tableColumn id="1" xr3:uid="{6186A583-74C8-4904-804E-BD2468504FD0}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="56"/>
     <tableColumn id="4" xr3:uid="{B2A18C3B-E87D-4E2C-838B-D6C9186023C4}" name="結果"/>
     <tableColumn id="5" xr3:uid="{3D19FAA4-918F-450B-941E-CA789149A463}" name="判定"/>
   </tableColumns>
@@ -2755,14 +3021,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="B39:F48" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C4675328-CBE7-48D0-85AA-0A55526EF0AA}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$39)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="51"/>
     <tableColumn id="4" xr3:uid="{169777BE-BAC1-4410-ADBE-A08DB56EC5FC}" name="結果"/>
     <tableColumn id="5" xr3:uid="{BCAB804B-98E3-4348-9063-9A9505AC4534}" name="判定"/>
   </tableColumns>
@@ -2777,8 +3043,8 @@
     <tableColumn id="1" xr3:uid="{BFDC78DA-3EF6-4750-A7E0-2B0AABC4CFDD}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="49"/>
     <tableColumn id="4" xr3:uid="{81244594-4A37-403B-8628-FD22ADBD5174}" name="結果"/>
     <tableColumn id="5" xr3:uid="{995D4DCE-2F3E-440C-94F2-4F0613DB5210}" name="判定"/>
   </tableColumns>
@@ -2806,7 +3072,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}" name="テーブル21" displayName="テーブル21" ref="B16:E21" totalsRowShown="0">
   <autoFilter ref="B16:E21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{D3F9664B-51A0-417A-B26E-6C60C80C3202}" name="攻撃力"/>
     <tableColumn id="3" xr3:uid="{A7C46260-D239-4D29-8978-A34E4DA44070}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{0D1E9AB4-D1BE-4CA0-A332-03F49C266C01}" name="強化"/>
@@ -2816,18 +3082,18 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="B24:F26" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="44">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="43">
       <calculatedColumnFormula>B17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{96861E92-0225-4479-A692-5D33F84EB792}" name="表示メッセージ(out)"/>
-    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2840,8 +3106,8 @@
     <tableColumn id="1" xr3:uid="{DC9EE3DF-4847-4649-A7EE-1A4431FAB1D1}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4265BB58-BEBA-4D5A-8B3D-CE3187FFB7DB}" name="武器(in)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4CE6A195-265A-46BC-9C41-0A1DE8E2274B}" name="表示メッセージ(out)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4265BB58-BEBA-4D5A-8B3D-CE3187FFB7DB}" name="武器(in)" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{4CE6A195-265A-46BC-9C41-0A1DE8E2274B}" name="表示メッセージ(out)" dataDxfId="39"/>
     <tableColumn id="4" xr3:uid="{D255E15A-6819-4F40-93B5-974389E52EBD}" name="結果"/>
     <tableColumn id="5" xr3:uid="{5084DA63-EB37-402C-805D-363A5D93F97D}" name="判定"/>
   </tableColumns>
@@ -2853,7 +3119,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}" name="テーブル2120" displayName="テーブル2120" ref="B13:E18" totalsRowShown="0">
   <autoFilter ref="B13:E18" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B4F6ADF-1B1D-4B89-9945-20A438440773}" name="アイテム" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{6B4F6ADF-1B1D-4B89-9945-20A438440773}" name="アイテム" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{31CE3399-4AF4-48D9-923E-CA2D7E3D70D8}" name="攻撃力"/>
     <tableColumn id="3" xr3:uid="{E9DF4822-BC30-4BC0-BED5-CC54930E8BA8}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{94493923-6A2A-4DB0-9BC4-41F76361DEBE}" name="強化"/>
@@ -2869,7 +3135,7 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="78"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
@@ -2885,8 +3151,8 @@
     <tableColumn id="1" xr3:uid="{395E5B1F-A5B7-4AD6-A65B-A477AD459BB4}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{105EB7F9-C940-43D1-ADD8-32ECF3C773A3}" name="BMI値(in)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{11CBAD7C-4702-490B-80EC-CA3462575581}" name="栄養状態(out)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{105EB7F9-C940-43D1-ADD8-32ECF3C773A3}" name="BMI値(in)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{11CBAD7C-4702-490B-80EC-CA3462575581}" name="栄養状態(out)" dataDxfId="36"/>
     <tableColumn id="4" xr3:uid="{1D1E3A7E-48B0-4C5F-A545-D5D687E461EA}" name="結果"/>
     <tableColumn id="5" xr3:uid="{EF4F5822-B55E-4B6B-ABD7-50EE301E4436}" name="判定"/>
   </tableColumns>
@@ -2898,7 +3164,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}" name="テーブル23" displayName="テーブル23" ref="B13:D19" totalsRowShown="0">
   <autoFilter ref="B13:D19" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AF6DDE1E-CF43-49D4-97B6-49E34850C1EA}" name="No" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{AF6DDE1E-CF43-49D4-97B6-49E34850C1EA}" name="No" dataDxfId="35">
       <calculatedColumnFormula>ROW()-ROW($B$13)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7F999DC9-E061-425F-8136-7F66B608A65A}" name="BMI指標"/>
@@ -2925,27 +3191,111 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:F15" totalsRowShown="0">
-  <autoFilter ref="B14:F15" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6753E6DD-A7AE-464B-828A-3DEE909E5EB5}" name="テーブル151734" displayName="テーブル151734" ref="B10:D16" totalsRowShown="0">
+  <autoFilter ref="B10:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3D0FD56D-BE2C-477B-9AD4-7721D55B2EE4}" name="No" dataDxfId="13">
+      <calculatedColumnFormula>ROW()-ROW($B$10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{56AF9972-1FBF-4C58-BF8B-4429B37D123F}" name="日(in)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{43F92752-9147-49A3-A9BE-D6854A86703C}" name="割引率(out)" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B4E5B0A5-1D8C-4993-9CE8-32C777B4D941}" name="テーブル15173135" displayName="テーブル15173135" ref="B19:D28" totalsRowShown="0">
+  <autoFilter ref="B19:D28" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3BDB2E8A-FED8-46D7-B040-32DDE67A42B8}" name="No" dataDxfId="8">
+      <calculatedColumnFormula>ROW()-ROW($B$19)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7513FB2A-4C50-48D3-86AC-07B87684EB2C}" name="日(in)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E69BBA3E-0714-4FD3-95AB-B5E1FB3C3C65}" name="割引率(out)" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{27C3BD8A-E8C4-42DD-AE1C-8D363DBAF148}" name="テーブル151726" displayName="テーブル151726" ref="B9:D13" totalsRowShown="0">
+  <autoFilter ref="B9:D13" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DE7D01AE-859F-40C5-9C4C-3CD82CFF81FA}" name="No" dataDxfId="28">
+      <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{72AC79C5-CE0C-4C6D-8855-10FB39E1E1F0}" name="日(in)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{E69D98DA-0DF2-4653-A459-A6D82522F1A2}" name="割引率(out)" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0B6431FB-8505-4F07-BAC7-567132857FA6}" name="テーブル15173128" displayName="テーブル15173128" ref="B16:D22" totalsRowShown="0">
+  <autoFilter ref="B16:D22" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED788229-7FAC-45A2-9F40-E27B5157E911}" name="No" dataDxfId="24">
+      <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7A4B1BE0-5895-4148-912D-B9C33BD953A8}" name="日(in)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{8A65EE14-85E3-427C-B4CF-5C423E6C4EC4}" name="割引率(out)" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9C88D44C-3DCC-4ED9-85BB-CE88D5FEA1B6}" name="テーブル151729" displayName="テーブル151729" ref="B13:F22" totalsRowShown="0">
+  <autoFilter ref="B13:F22" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No">
+    <tableColumn id="1" xr3:uid="{A67DBA48-C8F2-47EC-A68F-23BDFFCB77A4}" name="No" dataDxfId="22">
+      <calculatedColumnFormula>ROW()-ROW($B$13)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EA4E8641-8A21-46CA-B441-3DE45D5A1BFB}" name="日(in)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B4BA61E0-BB52-4E96-9091-4D39CC5A0BB8}" name="割引率(out)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D6B85252-97D8-4562-81F0-94B98C519BEB}" name="結果"/>
+    <tableColumn id="5" xr3:uid="{4685A39F-DF83-48A5-A3D1-0AF4AB796C53}" name="判定"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{03DE7147-B9F8-4450-9994-170AF047C7E4}" name="テーブル151732" displayName="テーブル151732" ref="B14:D16" totalsRowShown="0">
+  <autoFilter ref="B14:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4ABA8482-3634-40C8-8AA9-489E4D43A15B}" name="No" dataDxfId="19">
       <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{763BF1E5-2F59-4EC9-8FB8-5023F6C6B75D}" name="結果"/>
-    <tableColumn id="5" xr3:uid="{DE7E6610-523B-4690-B713-A12AB641CAD8}" name="判定"/>
+    <tableColumn id="2" xr3:uid="{2C7BB576-D08E-4C59-83BC-BBBFF09101D6}" name="長さm(in)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{AB1E01F0-F903-426D-8976-023206E24F82}" name="単価(out)" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{3274359D-BCD6-49B2-A316-DFBDF538CA33}" name="テーブル15173133" displayName="テーブル15173133" ref="B21:D23" totalsRowShown="0">
+  <autoFilter ref="B21:D23" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C2CF0EA4-4BFC-4360-B4E8-8EF9ADB59C2F}" name="No" dataDxfId="16">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6A1F1BF5-F15B-4542-89AF-323012BEB48F}" name="長さm(in)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D84A2566-6A5E-4849-A05C-CC976D6245E3}" name="単価(out)" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
-    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="74"/>
     <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
@@ -2954,14 +3304,42 @@
 </table>
 </file>
 
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:D16" totalsRowShown="0">
+  <autoFilter ref="B14:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No" dataDxfId="34">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}" name="テーブル151731" displayName="テーブル151731" ref="B21:D23" totalsRowShown="0">
+  <autoFilter ref="B21:D23" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E4E84DB8-0867-43E8-AF1C-931E92A30C8F}" name="No" dataDxfId="31">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0A074C4E-74AA-4374-960B-FE7A35403642}" name="長さm(in)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{8ECE7D09-59E5-408B-B22C-648D369B615F}" name="単価(out)" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="B30:F37" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6219FAF4-DA54-4BE7-97B9-07D36F876D0E}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="70"/>
     <tableColumn id="3" xr3:uid="{D9D17648-3E52-4DBD-BB1E-67C5668B8499}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{B2E41ED7-0E9D-4D8A-A56B-56F10FD44B1F}" name="結果"/>
     <tableColumn id="5" xr3:uid="{09DFD186-C2B6-401A-9DE1-EE48A0F1CC16}" name="判定"/>
@@ -2978,7 +3356,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$11)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{509FF755-38B7-4704-8133-8203910F9DC6}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="69"/>
     <tableColumn id="4" xr3:uid="{81D872D7-0C78-48BE-8E0D-F49E5ADEA4C4}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{D7E810B1-C407-4ADD-AE73-D746F35BAF37}" name="判定"/>
   </tableColumns>
@@ -2994,7 +3372,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{96075308-0A9A-4771-9918-E4375128EC9C}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="68"/>
     <tableColumn id="4" xr3:uid="{71723126-7D38-4715-8425-73F196F29CE3}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{FE403B6F-9D92-46B1-AC0A-084378B3C35E}" name="判定"/>
   </tableColumns>
@@ -3003,14 +3381,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65">
   <autoFilter ref="B24:F31" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0BA013CA-4130-4F4E-A721-13292B5A4570}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F79312B0-D1C4-4792-BB9D-228ACEDBF5C7}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="64"/>
     <tableColumn id="4" xr3:uid="{2934A5AF-26C9-4011-B6C3-A0F20ADE55B8}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{826AF35A-3D39-41A3-8B7C-56914B52731B}" name="判定"/>
   </tableColumns>
@@ -3042,7 +3420,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{71CFCE00-D5F7-4BC4-BEF8-BF79942B29D6}" name="畳数(in)"/>
-    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="63"/>
     <tableColumn id="4" xr3:uid="{19A8E784-4DCC-42E2-AA06-D92334451B79}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E283681A-8B7C-4EAC-BA5F-E90D7A3D592E}" name="判定"/>
   </tableColumns>
@@ -3375,28 +3753,32 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F18" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{9BA03CEC-C163-46BF-9CD8-ED68D6079654}">
-    <text>下に行挿入して作る
-作成したらI列以降のスピル範囲を調整する</text>
-  </threadedComment>
-  <threadedComment ref="F24" dT="2022-02-25T14:08:57.89" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{FDA5FABD-FD92-4C35-9C19-14B8C2B41123}">
-    <text>下に行挿入して作る
-作成したらI列以降のスピル範囲を調整する</text>
-  </threadedComment>
-  <threadedComment ref="B28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
+  <threadedComment ref="C32" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{A9C0D972-1121-40EE-8A46-1537999C8C80}">
     <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
   </threadedComment>
-  <threadedComment ref="I28" dT="2022-02-25T14:10:01.23" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{BFF08FF6-AA40-4B1D-B311-8D77C670311E}">
-    <text>同値分割のC列（入力列）から右側をSPILLで取得</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C26" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{0A33482B-909B-49A7-8C1B-EEC22CF43FBB}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
   </threadedComment>
-  <threadedComment ref="N28" dT="2022-02-25T14:10:46.62" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{7B26A927-55B4-4FA5-A4AD-77E588C8E3B6}">
-    <text>同値分割と境界値分析の結果をつなげて１つの範囲にする</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
   </threadedComment>
-  <threadedComment ref="S28" dT="2022-02-25T14:11:35.49" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{6099AA47-0B8B-4E40-A5F9-BBE1B4B30739}">
-    <text>１つの範囲につなげたテストケースを入力の順にソートする</text>
-  </threadedComment>
-  <threadedComment ref="I32" dT="2022-02-25T14:09:47.92" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{94E2C060-A305-4E32-A37A-9686CB1EF86C}">
-    <text>境界値分析のC列（入力列）から右側をSPILLで取得</text>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3736,6 +4118,1259 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617B9B85-C81E-4AB5-94B6-652FB19FD838}">
+  <dimension ref="B2:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.9肉</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>屋の特売日</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <f t="shared" ref="B10:B11" si="0">ROW()-ROW($B$9)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="47">
+        <f t="shared" ref="B12:B13" si="1">ROW()-ROW($B$9)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="21">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="21">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <f t="shared" ref="B17:B22" si="2">ROW()-ROW($B$16)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="21">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C19" s="21">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="47">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="21">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="47">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="21">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="46" t="str">
+        <f>B$9</f>
+        <v>No</v>
+      </c>
+      <c r="C25" s="46" t="str">
+        <f t="shared" ref="C25:D25" si="3">C$9</f>
+        <v>日(in)</v>
+      </c>
+      <c r="D25" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>割引率(out)</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" cm="1">
+        <f t="array" ref="B26:B35">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C26)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="20" cm="1">
+        <f t="array" ref="C26:D35">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H26),_xlfn.ANCHORARRAY(H26) H:H)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" cm="1">
+        <f t="array" ref="H26:I35">_xlfn.LET(_xlpm.area,テーブル151726[[日(in)]:[割引率(out)]]:テーブル15173128[[日(in)]:[割引率(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151726[[#Headers],[日(in)]])))</f>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="20">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>3</v>
+      </c>
+      <c r="D27" s="20">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="20">
+        <v>3</v>
+      </c>
+      <c r="C28" s="20">
+        <v>5</v>
+      </c>
+      <c r="D28" s="20">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="20">
+        <v>4</v>
+      </c>
+      <c r="C29" s="20">
+        <v>6</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="20">
+        <v>5</v>
+      </c>
+      <c r="C30" s="20">
+        <v>10</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="20">
+        <v>6</v>
+      </c>
+      <c r="C31" s="20">
+        <v>27</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="20">
+        <v>7</v>
+      </c>
+      <c r="C32" s="20">
+        <v>28</v>
+      </c>
+      <c r="D32" s="20">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="20">
+        <v>8</v>
+      </c>
+      <c r="C33" s="20">
+        <v>29</v>
+      </c>
+      <c r="D33" s="20">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="20">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20">
+        <v>30</v>
+      </c>
+      <c r="D34" s="20">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="20">
+        <v>10</v>
+      </c>
+      <c r="C35" s="20">
+        <v>31</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B26:F98">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B26)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094B7A3A-76E6-4F56-B3C1-520C0968543E}">
+  <dimension ref="B2:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.9肉</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>屋の特売日</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <f t="shared" ref="B14:B15" si="0">ROW()-ROW($B$13)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="21">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="21">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="21">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="21">
+        <v>29</v>
+      </c>
+      <c r="D20" s="12">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="21">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="47">
+        <f>ROW()-ROW($B$13)</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="21">
+        <v>10</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B27:F97">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B27)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED539E7-560B-4065-AE6F-BB3B9AB27B50}">
+  <dimension ref="B2:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.9肉</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>屋の特売日</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <f t="shared" ref="B15:B16" si="0">ROW()-ROW($B$14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <f t="shared" ref="B22:B23" si="1">ROW()-ROW($B$14)</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="46" t="str">
+        <f>B$14</f>
+        <v>No</v>
+      </c>
+      <c r="C27" s="46" t="str">
+        <f t="shared" ref="C27:D27" si="2">C$14</f>
+        <v>長さm(in)</v>
+      </c>
+      <c r="D27" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>単価(out)</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" cm="1">
+        <f t="array" ref="B28:B31">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C28)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" cm="1">
+        <f t="array" ref="C28:D31">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H28),_xlfn.ANCHORARRAY(H28) H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28:I31">_xlfn.LET(_xlpm.area,テーブル151732[[長さm(in)]:[単価(out)]]:テーブル15173133[[長さm(in)]:[単価(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151732[[#Headers],[長さm(in)]])))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="20">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="20">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="20">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20">
+        <v>100</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B28:F100">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B28)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB7C1E-F495-4E25-94DF-5F1EEF638EDD}">
+  <dimension ref="B2:I40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <v>1.9</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <v>肉屋の特売日</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <f t="shared" ref="B15:B16" si="0">ROW()-ROW($B$14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <f t="shared" ref="B22:B23" si="1">ROW()-ROW($B$14)</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="46" t="str">
+        <f>B$14</f>
+        <v>No</v>
+      </c>
+      <c r="C27" s="46" t="str">
+        <f t="shared" ref="C27:D27" si="2">C$14</f>
+        <v>長さm(in)</v>
+      </c>
+      <c r="D27" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>単価(out)</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" cm="1">
+        <f t="array" ref="B28:B31">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C28)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" cm="1">
+        <f t="array" ref="C28:D31">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H28),_xlfn.ANCHORARRAY(H28) H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28:I31">_xlfn.LET(_xlpm.area,テーブル1517[[長さm(in)]:[単価(out)]]:テーブル151731[[長さm(in)]:[単価(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル1517[[#Headers],[長さm(in)]])))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="20">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="20">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="20">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20">
+        <v>100</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B28:F100">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B28)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6558,7 +8193,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:F93">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B27)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6575,7 +8210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7875D-6D18-4021-8C23-96B122A48FF1}">
   <dimension ref="B2:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -6588,11 +8223,11 @@
     <row r="2" spans="2:4">
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
-        <v>BMI値で栄養状態を判定</v>
+        <v>肉屋の特売日</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -6600,7 +8235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.8">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -6648,7 +8283,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" ref="B14:B19" si="0">ROW()-ROW($B$13)</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -6660,7 +8295,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -6672,7 +8307,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -6684,7 +8319,7 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
@@ -6696,7 +8331,7 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -6708,7 +8343,7 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="29">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C19" t="s">
@@ -6745,7 +8380,7 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" ref="B23:B30" si="1">ROW()-ROW($B$22)</f>
         <v>1</v>
       </c>
       <c r="C23" s="2">
@@ -6757,7 +8392,7 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C24" s="2">
@@ -6769,7 +8404,7 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C25" s="2">
@@ -6781,7 +8416,7 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C26" s="2">
@@ -6793,7 +8428,7 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C27" s="2">
@@ -6805,7 +8440,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C28" s="2">
@@ -6817,7 +8452,7 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C29" s="2">
@@ -6829,7 +8464,7 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="25">
-        <f>ROW()-ROW($B$22)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C30" s="43">
@@ -6940,7 +8575,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" ref="B34:B47" si="2">ROW()-ROW($B$33)</f>
         <v>1</v>
       </c>
       <c r="C34" s="2">
@@ -6988,7 +8623,7 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C35">
@@ -7036,7 +8671,7 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C36">
@@ -7084,7 +8719,7 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C37">
@@ -7132,7 +8767,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C38">
@@ -7180,7 +8815,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C39">
@@ -7228,7 +8863,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C40">
@@ -7277,7 +8912,7 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C41">
@@ -7325,7 +8960,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C42">
@@ -7373,7 +9008,7 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C43">
@@ -7421,7 +9056,7 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C44">
@@ -7469,7 +9104,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C45">
@@ -7517,7 +9152,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C46">
@@ -7565,7 +9200,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47">
-        <f>ROW()-ROW($B$33)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C47">
@@ -8230,7 +9865,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B51:F123">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B51)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8246,11 +9881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB7C1E-F495-4E25-94DF-5F1EEF638EDD}">
-  <dimension ref="B2:V40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95603BCA-E4BD-4E01-BC9B-F5A376AFCF58}">
+  <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8259,564 +9894,559 @@
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
-        <v>BMI値で栄養状態を判定</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>肉屋の特売日</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="47">
+        <f>ROW()-ROW($B$10)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <f t="shared" ref="B12:B13" si="0">ROW()-ROW($B$10)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="21">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="47">
+        <f>ROW()-ROW($B$10)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="21">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="47">
+        <f>ROW()-ROW($B$10)</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="47">
+        <f>ROW()-ROW($B$10)</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <f t="shared" ref="B20:B21" si="1">ROW()-ROW($B$19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="21">
+        <v>27</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="21">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="21">
+        <v>31</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="47">
+        <f>ROW()-ROW($B$19)</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="21">
+        <v>32</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="46" t="str">
+        <f>B$10</f>
+        <v>No</v>
+      </c>
+      <c r="C31" s="46" t="str">
+        <f t="shared" ref="C31:D31" si="2">C$10</f>
+        <v>日(in)</v>
+      </c>
+      <c r="D31" s="46" t="str">
+        <f t="shared" si="2"/>
+        <v>割引率(out)</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F31" s="46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15">
-        <f>ROW()-ROW($B$14)</f>
+      <c r="H31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" cm="1">
+        <f t="array" ref="B32:B46">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C32)),1)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22"/>
-    <row r="20" spans="2:22">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" t="str">
-        <f>B$14</f>
-        <v>No</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ref="C21:F21" si="0">C$14</f>
-        <v>長さm(in)</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>単価(out)</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>結果</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>判定</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22">
-        <f>ROW()-ROW($B$21)</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22"/>
-    <row r="26" spans="2:22">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="B27" t="str">
-        <f>B$14</f>
-        <v>No</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:F27" si="1">C$14</f>
-        <v>長さm(in)</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>単価(out)</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>結果</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>判定</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="20" cm="1">
-        <f t="array" ref="B28:B34">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(N28)),1,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" cm="1">
-        <f t="array" ref="C28:F34">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N28),_xlfn.ANCHORARRAY($N28) $N:$N)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="str">
-        <v>-</v>
-      </c>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21" cm="1">
-        <f t="array" ref="I28:L31">$C$15:$F18</f>
-        <v>0</v>
-      </c>
-      <c r="J28" t="str">
-        <v>-</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="N28" cm="1">
-        <f t="array" ref="N28:Q34">_xlfn.ANCHORARRAY($I28):_xlfn.ANCHORARRAY($I32)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" t="str">
-        <v>-</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28" cm="1">
-        <f t="array" ref="S28:V34">_xlfn.SORTBY(_xlfn.ANCHORARRAY($N28),_xlfn.ANCHORARRAY($N28) $N:$N)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" t="str">
-        <v>-</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29" s="20">
-        <v>2</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="20">
-        <v>3</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="20">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="B32" s="20">
-        <v>5</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
+      <c r="C32" s="20" cm="1">
+        <f t="array" ref="C32:D46">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H32),_xlfn.ANCHORARRAY(H32) H:H)</f>
+        <v>-1</v>
       </c>
       <c r="D32" s="20" t="str">
         <v>-</v>
       </c>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" cm="1">
-        <f t="array" ref="I32:L34">$C$22:$F24</f>
-        <v>0</v>
-      </c>
-      <c r="J32" t="str">
+      <c r="H32" s="2" cm="1">
+        <f t="array" ref="H32:I46">_xlfn.LET(_xlpm.area,テーブル151734[[日(in)]:[割引率(out)]]:テーブル15173135[[日(in)]:[割引率(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151734[[#Headers],[日(in)]])))</f>
+        <v>-1</v>
+      </c>
+      <c r="I32" t="str">
         <v>-</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="str">
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="20">
+        <v>2</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20" t="str">
         <v>-</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32" t="str">
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="20">
+        <v>3</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="20">
+        <v>4</v>
+      </c>
+      <c r="C35" s="20">
+        <v>3</v>
+      </c>
+      <c r="D35" s="20">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="20">
+        <v>5</v>
+      </c>
+      <c r="C36" s="20">
+        <v>5</v>
+      </c>
+      <c r="D36" s="20">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36">
+        <v>31</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="20">
+        <v>6</v>
+      </c>
+      <c r="C37" s="20">
+        <v>6</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37" t="str">
         <v>-</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="20">
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="20">
+        <v>7</v>
+      </c>
+      <c r="C38" s="20">
+        <v>10</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="20">
+        <v>8</v>
+      </c>
+      <c r="C39" s="20">
+        <v>27</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="20">
+        <v>9</v>
+      </c>
+      <c r="C40" s="20">
+        <v>28</v>
+      </c>
+      <c r="D40" s="20">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="20">
+        <v>10</v>
+      </c>
+      <c r="C41" s="20">
+        <v>29</v>
+      </c>
+      <c r="D41" s="20">
+        <v>20</v>
+      </c>
+      <c r="H41">
         <v>6</v>
       </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <v>0</v>
-      </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="20">
-        <v>7</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="2:22">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="20">
+        <v>11</v>
+      </c>
+      <c r="C42" s="20">
+        <v>30</v>
+      </c>
+      <c r="D42" s="20">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>27</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="20">
+        <v>12</v>
+      </c>
+      <c r="C43" s="20">
+        <v>31</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>28</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="20">
+        <v>13</v>
+      </c>
+      <c r="C44" s="20">
+        <v>31</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45" t="str">
+        <v>-</v>
+      </c>
+      <c r="H45">
+        <v>31</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>33</v>
+      </c>
+      <c r="D46" t="str">
+        <v>-</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="I46" t="str">
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B28:F100">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B28)=FALSE)</formula>
+  <conditionalFormatting sqref="B32:D104">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B32)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:F104">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B32)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Part1(EP_BVA).xlsx
+++ b/Part1(EP_BVA).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ソフトウェアテスト技法練習帳/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0869C1-3CE8-4EFF-8982-7A04BBC04088}"/>
+  <xr:revisionPtr revIDLastSave="1371" documentId="8_{5153F73D-5184-4297-9913-58FADAB59DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA83A93-F85C-4F0E-8AC2-DEB2684C984C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="12" xr2:uid="{BBDD053C-B702-4C3A-A90A-9C45BE65917B}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1温度によって表示を変えるペット用室温計" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="1.10肉屋の特売日~A社のソースコード" sheetId="11" r:id="rId10"/>
     <sheet name="1.11肉屋の特売日~B社のソースコード" sheetId="13" r:id="rId11"/>
     <sheet name="1.12配達便の料金体系" sheetId="14" r:id="rId12"/>
-    <sheet name="1.xひな形" sheetId="6" r:id="rId13"/>
+    <sheet name="1.13経理システムに入力する部署コード" sheetId="16" r:id="rId13"/>
+    <sheet name="1.xひな形" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +163,7 @@
     <author>tc={8A40F7FB-1A70-4127-97BE-4707112D82A1}</author>
   </authors>
   <commentList>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,6 +176,33 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D6C5B702-6F22-4CAC-847A-A7F1DB906E8A}</author>
+    <author>tc={7C1DB226-B2CE-4FC0-8093-ABDE30867407}</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{D6C5B702-6F22-4CAC-847A-A7F1DB906E8A}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    要らんらしい</t>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="1" shapeId="0" xr:uid="{7C1DB226-B2CE-4FC0-8093-ABDE30867407}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}</author>
@@ -215,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="195">
   <si>
     <t>温度によって表示を変えるペット用室温計</t>
     <rPh sb="0" eb="2">
@@ -1817,6 +1845,603 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3辺合計c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m(in)</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量kg(in)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷物サイズ(out)</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3辺合計c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m(in)</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「３辺合計」と「重量」と「荷物サイズ」の関係は表１のとおり</t>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「荷物サイズ」は「３辺合計」または「重量」に対する荷物サイズの大きいほうに決まる</t>
+    <rPh sb="1" eb="3">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「3辺合計」が100cmを超える場合、エラーを表示する</t>
+    <rPh sb="2" eb="5">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「重量」が10kgを超える場合、エラーを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「３辺合計」・「重量」・「荷物サイズ」の関係</t>
+    <rPh sb="2" eb="5">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷物サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３辺合計</t>
+    <rPh sb="1" eb="4">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60cm以下</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2kg以下</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80cm以下</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5kg以下</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100cm以下</t>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10kg以下</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「３辺合計」と「重量」には0の入力が許容されている</t>
+    <rPh sb="2" eb="5">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字・記号文字・小数点付き数字・負の数字は入力できない</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キゴウモジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショウスウテンツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「３辺合計」は４桁以上の整数は入力できない</t>
+    <rPh sb="2" eb="5">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケタイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「重量」は３桁以上の整数は入力できない</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケタイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用３辺合計</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘンゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業用重量</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100cmより大きい</t>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10kgより大きい</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数以外の入力は考慮不要</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字・記号文字・小数点付き数字の入力は考慮不要</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>キゴウモジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショウスウテンツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>コウリョフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2桁以下、4桁以上の整数は入力するとエラーが発生する</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ケタイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した部署コードに対応する部署名が存在しない場合、「該当する部署がありません」のメッセージを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・部署コードに関する補足事項</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードは整数３桁で、必ずしも番号は連続していない</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードは昇順でテーブルに格納されている</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードで最小の番号は「100」</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードで最大の番号は「960」</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードの総数：72件</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コードの内容は正しい</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力桁数に着目</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクケタスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チャクモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コード(in)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署名(out)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本店経理部</t>
+    <rPh sb="0" eb="5">
+      <t>ホンテンケイリブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本店総務部</t>
+    <rPh sb="0" eb="5">
+      <t>ホンテンソウムブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄支店</t>
+    <rPh sb="0" eb="4">
+      <t>オキナワシテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当する部署名がありません</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ブショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当有無に着目</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チャクモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1828,7 +2453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,13 +2477,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -1895,8 +2513,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1918,6 +2552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,7 +2693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,10 +2778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2180,7 +2820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2192,17 +2832,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -2260,6 +2918,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2267,6 +2941,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2290,19 +2973,31 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2317,7 +3012,13 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2326,7 +3027,16 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2964,7 +3674,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}" name="テーブル1" displayName="テーブル1" ref="B5:D8" totalsRowShown="0">
   <autoFilter ref="B5:D8" xr:uid="{692C5BB4-42D4-46DE-8468-1B6CAA581650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{0249F846-B969-468F-B137-AC1582C0B877}" name="No" dataDxfId="95"/>
     <tableColumn id="2" xr3:uid="{0966236F-AF93-46C6-AE62-CCC63168274B}" name="室温"/>
     <tableColumn id="3" xr3:uid="{6DA34724-F7D7-4B04-ACC5-FA746DE7C99D}" name="表示メッセージ"/>
   </tableColumns>
@@ -2973,7 +3683,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}" name="テーブル12" displayName="テーブル12" ref="B29:F39" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="B29:F39" xr:uid="{F6C91BC6-2B83-4ECA-91A6-95E91BD2014C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BA80F107-5FC6-4D89-B7D4-46C51104FB68}" name="No">
@@ -2995,8 +3705,8 @@
     <tableColumn id="1" xr3:uid="{BE6F6845-98B0-4AE4-8028-FB8074B6769F}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$29)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{1012E770-11EC-45DE-864E-266988B95A51}" name="長さm(in)" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{56B968F6-0760-4384-80BB-E9C62B0CC5BE}" name="単価(out)" dataDxfId="74"/>
     <tableColumn id="4" xr3:uid="{116F8EA2-6E93-4D9F-ADAA-32FE1BA8F37C}" name="結果"/>
     <tableColumn id="5" xr3:uid="{D6781A88-2C17-4833-A000-7A5A46904C7D}" name="判定"/>
   </tableColumns>
@@ -3011,8 +3721,8 @@
     <tableColumn id="1" xr3:uid="{6186A583-74C8-4904-804E-BD2468504FD0}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{25A2A408-1A88-4A6A-ABD7-F597E9BA35B6}" name="長さm(in)" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{D607633A-C765-436E-B4EA-FE5DC2239D7F}" name="単価(out)" dataDxfId="72"/>
     <tableColumn id="4" xr3:uid="{B2A18C3B-E87D-4E2C-838B-D6C9186023C4}" name="結果"/>
     <tableColumn id="5" xr3:uid="{3D19FAA4-918F-450B-941E-CA789149A463}" name="判定"/>
   </tableColumns>
@@ -3021,14 +3731,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}" name="テーブル13" displayName="テーブル13" ref="B39:F48" totalsRowShown="0" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="B39:F48" xr:uid="{C0F7F59A-DD8E-4915-8E55-7FEE328E4AA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C4675328-CBE7-48D0-85AA-0A55526EF0AA}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$39)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{9BF2E60B-C263-4ADC-B0F0-09112C3C7AB8}" name="長さm(in)" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{CF18C732-FA92-48D4-BE63-583B946E6ABB}" name="単価(out)" dataDxfId="67"/>
     <tableColumn id="4" xr3:uid="{169777BE-BAC1-4410-ADBE-A08DB56EC5FC}" name="結果"/>
     <tableColumn id="5" xr3:uid="{BCAB804B-98E3-4348-9063-9A9505AC4534}" name="判定"/>
   </tableColumns>
@@ -3043,8 +3753,8 @@
     <tableColumn id="1" xr3:uid="{BFDC78DA-3EF6-4750-A7E0-2B0AABC4CFDD}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{41930760-8FC2-4516-89B7-4D73272E0537}" name="年齢(in)" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{D04B5B2F-B99D-4F15-BED1-D5EB24BB649D}" name="入園料金(out)" dataDxfId="65"/>
     <tableColumn id="4" xr3:uid="{81244594-4A37-403B-8628-FD22ADBD5174}" name="結果"/>
     <tableColumn id="5" xr3:uid="{995D4DCE-2F3E-440C-94F2-4F0613DB5210}" name="判定"/>
   </tableColumns>
@@ -3072,7 +3782,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}" name="テーブル21" displayName="テーブル21" ref="B16:E21" totalsRowShown="0">
   <autoFilter ref="B16:E21" xr:uid="{D2C6A776-FDFD-4A2D-92C6-8314AD94EA85}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{956AF395-45DC-40AD-B4B7-0F7B19040E84}" name="アイテム" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{D3F9664B-51A0-417A-B26E-6C60C80C3202}" name="攻撃力"/>
     <tableColumn id="3" xr3:uid="{A7C46260-D239-4D29-8978-A34E4DA44070}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{0D1E9AB4-D1BE-4CA0-A332-03F49C266C01}" name="強化"/>
@@ -3082,18 +3792,18 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}" name="テーブル22" displayName="テーブル22" ref="B24:F26" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="B24:F26" xr:uid="{2E41A335-4191-4EBF-BA33-E80C27B2708B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{7088C251-BB4C-49FC-9D6D-373115EB4CE3}" name="No" dataDxfId="60">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{FF33A385-1C9A-4C72-B617-4DFE5DA6D987}" name="装備する武器(in)" dataDxfId="59">
       <calculatedColumnFormula>B17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{96861E92-0225-4479-A692-5D33F84EB792}" name="表示メッセージ(out)"/>
-    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{873A2E15-D7DB-421D-9887-5512A6C35436}" name="結果" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{1DB66291-8B06-495E-87E5-8B3BD2E6A1C2}" name="判定" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3106,8 +3816,8 @@
     <tableColumn id="1" xr3:uid="{DC9EE3DF-4847-4649-A7EE-1A4431FAB1D1}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4265BB58-BEBA-4D5A-8B3D-CE3187FFB7DB}" name="武器(in)" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{4CE6A195-265A-46BC-9C41-0A1DE8E2274B}" name="表示メッセージ(out)" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{4265BB58-BEBA-4D5A-8B3D-CE3187FFB7DB}" name="武器(in)" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{4CE6A195-265A-46BC-9C41-0A1DE8E2274B}" name="表示メッセージ(out)" dataDxfId="55"/>
     <tableColumn id="4" xr3:uid="{D255E15A-6819-4F40-93B5-974389E52EBD}" name="結果"/>
     <tableColumn id="5" xr3:uid="{5084DA63-EB37-402C-805D-363A5D93F97D}" name="判定"/>
   </tableColumns>
@@ -3119,7 +3829,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}" name="テーブル2120" displayName="テーブル2120" ref="B13:E18" totalsRowShown="0">
   <autoFilter ref="B13:E18" xr:uid="{61A077F1-71E8-40C2-AD38-AD060434B09B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B4F6ADF-1B1D-4B89-9945-20A438440773}" name="アイテム" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{6B4F6ADF-1B1D-4B89-9945-20A438440773}" name="アイテム" dataDxfId="54"/>
     <tableColumn id="2" xr3:uid="{31CE3399-4AF4-48D9-923E-CA2D7E3D70D8}" name="攻撃力"/>
     <tableColumn id="3" xr3:uid="{E9DF4822-BC30-4BC0-BED5-CC54930E8BA8}" name="タイプ"/>
     <tableColumn id="4" xr3:uid="{94493923-6A2A-4DB0-9BC4-41F76361DEBE}" name="強化"/>
@@ -3135,7 +3845,7 @@
     <tableColumn id="1" xr3:uid="{E80F3CF0-9D9B-45B1-882E-E5CA727730C3}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{FC48409F-FC1E-437F-8671-F9D6023FDA6F}" name="室温(in)" dataDxfId="94"/>
     <tableColumn id="3" xr3:uid="{61B94E7B-78BB-460C-9E4D-7F43A755C807}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{F277BBAC-25C4-461D-A3D3-A11A228D66AF}" name="結果"/>
     <tableColumn id="5" xr3:uid="{354C74BC-55C0-4CC7-BFD2-C6871D5EB306}" name="判定"/>
@@ -3151,8 +3861,8 @@
     <tableColumn id="1" xr3:uid="{395E5B1F-A5B7-4AD6-A65B-A477AD459BB4}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{105EB7F9-C940-43D1-ADD8-32ECF3C773A3}" name="BMI値(in)" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{11CBAD7C-4702-490B-80EC-CA3462575581}" name="栄養状態(out)" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{105EB7F9-C940-43D1-ADD8-32ECF3C773A3}" name="BMI値(in)" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{11CBAD7C-4702-490B-80EC-CA3462575581}" name="栄養状態(out)" dataDxfId="52"/>
     <tableColumn id="4" xr3:uid="{1D1E3A7E-48B0-4C5F-A545-D5D687E461EA}" name="結果"/>
     <tableColumn id="5" xr3:uid="{EF4F5822-B55E-4B6B-ABD7-50EE301E4436}" name="判定"/>
   </tableColumns>
@@ -3164,7 +3874,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}" name="テーブル23" displayName="テーブル23" ref="B13:D19" totalsRowShown="0">
   <autoFilter ref="B13:D19" xr:uid="{4589238A-CE8A-4407-956B-502619DB8375}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AF6DDE1E-CF43-49D4-97B6-49E34850C1EA}" name="No" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{AF6DDE1E-CF43-49D4-97B6-49E34850C1EA}" name="No" dataDxfId="51">
       <calculatedColumnFormula>ROW()-ROW($B$13)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7F999DC9-E061-425F-8136-7F66B608A65A}" name="BMI指標"/>
@@ -3194,11 +3904,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{6753E6DD-A7AE-464B-828A-3DEE909E5EB5}" name="テーブル151734" displayName="テーブル151734" ref="B10:D16" totalsRowShown="0">
   <autoFilter ref="B10:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3D0FD56D-BE2C-477B-9AD4-7721D55B2EE4}" name="No" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{3D0FD56D-BE2C-477B-9AD4-7721D55B2EE4}" name="No" dataDxfId="50">
       <calculatedColumnFormula>ROW()-ROW($B$10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{56AF9972-1FBF-4C58-BF8B-4429B37D123F}" name="日(in)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{43F92752-9147-49A3-A9BE-D6854A86703C}" name="割引率(out)" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{56AF9972-1FBF-4C58-BF8B-4429B37D123F}" name="日(in)" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{43F92752-9147-49A3-A9BE-D6854A86703C}" name="割引率(out)" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3208,11 +3918,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B4E5B0A5-1D8C-4993-9CE8-32C777B4D941}" name="テーブル15173135" displayName="テーブル15173135" ref="B19:D28" totalsRowShown="0">
   <autoFilter ref="B19:D28" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BDB2E8A-FED8-46D7-B040-32DDE67A42B8}" name="No" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{3BDB2E8A-FED8-46D7-B040-32DDE67A42B8}" name="No" dataDxfId="47">
       <calculatedColumnFormula>ROW()-ROW($B$19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7513FB2A-4C50-48D3-86AC-07B87684EB2C}" name="日(in)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E69BBA3E-0714-4FD3-95AB-B5E1FB3C3C65}" name="割引率(out)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7513FB2A-4C50-48D3-86AC-07B87684EB2C}" name="日(in)" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{E69BBA3E-0714-4FD3-95AB-B5E1FB3C3C65}" name="割引率(out)" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3222,11 +3932,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{27C3BD8A-E8C4-42DD-AE1C-8D363DBAF148}" name="テーブル151726" displayName="テーブル151726" ref="B9:D13" totalsRowShown="0">
   <autoFilter ref="B9:D13" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE7D01AE-859F-40C5-9C4C-3CD82CFF81FA}" name="No" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{DE7D01AE-859F-40C5-9C4C-3CD82CFF81FA}" name="No" dataDxfId="44">
       <calculatedColumnFormula>ROW()-ROW($B$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{72AC79C5-CE0C-4C6D-8855-10FB39E1E1F0}" name="日(in)" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E69D98DA-0DF2-4653-A459-A6D82522F1A2}" name="割引率(out)" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{72AC79C5-CE0C-4C6D-8855-10FB39E1E1F0}" name="日(in)" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{E69D98DA-0DF2-4653-A459-A6D82522F1A2}" name="割引率(out)" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3236,11 +3946,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{0B6431FB-8505-4F07-BAC7-567132857FA6}" name="テーブル15173128" displayName="テーブル15173128" ref="B16:D22" totalsRowShown="0">
   <autoFilter ref="B16:D22" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ED788229-7FAC-45A2-9F40-E27B5157E911}" name="No" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{ED788229-7FAC-45A2-9F40-E27B5157E911}" name="No" dataDxfId="41">
       <calculatedColumnFormula>ROW()-ROW($B$16)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7A4B1BE0-5895-4148-912D-B9C33BD953A8}" name="日(in)" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{8A65EE14-85E3-427C-B4CF-5C423E6C4EC4}" name="割引率(out)" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{7A4B1BE0-5895-4148-912D-B9C33BD953A8}" name="日(in)" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{8A65EE14-85E3-427C-B4CF-5C423E6C4EC4}" name="割引率(out)" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3250,11 +3960,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9C88D44C-3DCC-4ED9-85BB-CE88D5FEA1B6}" name="テーブル151729" displayName="テーブル151729" ref="B13:F22" totalsRowShown="0">
   <autoFilter ref="B13:F22" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A67DBA48-C8F2-47EC-A68F-23BDFFCB77A4}" name="No" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{A67DBA48-C8F2-47EC-A68F-23BDFFCB77A4}" name="No" dataDxfId="38">
       <calculatedColumnFormula>ROW()-ROW($B$13)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA4E8641-8A21-46CA-B441-3DE45D5A1BFB}" name="日(in)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B4BA61E0-BB52-4E96-9091-4D39CC5A0BB8}" name="割引率(out)" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{EA4E8641-8A21-46CA-B441-3DE45D5A1BFB}" name="日(in)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{B4BA61E0-BB52-4E96-9091-4D39CC5A0BB8}" name="割引率(out)" dataDxfId="36"/>
     <tableColumn id="4" xr3:uid="{D6B85252-97D8-4562-81F0-94B98C519BEB}" name="結果"/>
     <tableColumn id="5" xr3:uid="{4685A39F-DF83-48A5-A3D1-0AF4AB796C53}" name="判定"/>
   </tableColumns>
@@ -3263,39 +3973,39 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{03DE7147-B9F8-4450-9994-170AF047C7E4}" name="テーブル151732" displayName="テーブル151732" ref="B14:D16" totalsRowShown="0">
-  <autoFilter ref="B14:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{03DE7147-B9F8-4450-9994-170AF047C7E4}" name="テーブル151732" displayName="テーブル151732" ref="B23:D27" totalsRowShown="0">
+  <autoFilter ref="B23:D27" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4ABA8482-3634-40C8-8AA9-489E4D43A15B}" name="No" dataDxfId="19">
-      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4ABA8482-3634-40C8-8AA9-489E4D43A15B}" name="No" dataDxfId="35">
+      <calculatedColumnFormula>ROW()-ROW($B$23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2C7BB576-D08E-4C59-83BC-BBBFF09101D6}" name="長さm(in)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{AB1E01F0-F903-426D-8976-023206E24F82}" name="単価(out)" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2C7BB576-D08E-4C59-83BC-BBBFF09101D6}" name="3辺合計cm(in)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{AB1E01F0-F903-426D-8976-023206E24F82}" name="荷物サイズ(out)" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{3274359D-BCD6-49B2-A316-DFBDF538CA33}" name="テーブル15173133" displayName="テーブル15173133" ref="B21:D23" totalsRowShown="0">
-  <autoFilter ref="B21:D23" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{3274359D-BCD6-49B2-A316-DFBDF538CA33}" name="テーブル15173133" displayName="テーブル15173133" ref="B30:D37" totalsRowShown="0">
+  <autoFilter ref="B30:D37" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C2CF0EA4-4BFC-4360-B4E8-8EF9ADB59C2F}" name="No" dataDxfId="16">
-      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{C2CF0EA4-4BFC-4360-B4E8-8EF9ADB59C2F}" name="No" dataDxfId="32">
+      <calculatedColumnFormula>ROW()-ROW($A$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A1F1BF5-F15B-4542-89AF-323012BEB48F}" name="長さm(in)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D84A2566-6A5E-4849-A05C-CC976D6245E3}" name="単価(out)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6A1F1BF5-F15B-4542-89AF-323012BEB48F}" name="3辺合計cm(in)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D84A2566-6A5E-4849-A05C-CC976D6245E3}" name="荷物サイズ(out)" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}" name="テーブル4" displayName="テーブル4" ref="B22:F26" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91">
   <autoFilter ref="B22:F26" xr:uid="{55640108-429D-42FF-B276-96A085B62C20}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7A29B348-9969-4DAF-996C-F0E2E82435FB}" name="No"/>
-    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{4F4CE11C-1FD7-4737-9846-C40CD4E9BD31}" name="室温(in)" dataDxfId="90"/>
     <tableColumn id="3" xr3:uid="{177918AB-234F-4208-8AAF-D453B945F459}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{3A11535C-2C5A-4E6C-808E-F31C2C7A4F47}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E4685DD6-2223-478B-A6F7-8D2019CAC51C}" name="判定"/>
@@ -3305,41 +4015,123 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:D16" totalsRowShown="0">
-  <autoFilter ref="B14:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0886BB0A-EDEE-4DF1-BD4E-E4F27EA14D5E}" name="テーブル18" displayName="テーブル18" ref="B16:D20" totalsRowShown="0">
+  <autoFilter ref="B16:D20" xr:uid="{0886BB0A-EDEE-4DF1-BD4E-E4F27EA14D5E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No" dataDxfId="34">
-      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{989B0775-2A19-40D9-AB0D-DF5DE2B36249}" name="荷物サイズ"/>
+    <tableColumn id="2" xr3:uid="{1066EB57-2CB1-4435-94B4-17ECCEBA51C4}" name="３辺合計"/>
+    <tableColumn id="3" xr3:uid="{6F84D3CB-B30F-45CC-B4C6-4F626C4F709E}" name="重量"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7183F7C2-6A35-4915-BEC8-D5814901A15F}" name="テーブル15173227" displayName="テーブル15173227" ref="F23:H27" totalsRowShown="0">
+  <autoFilter ref="F23:H27" xr:uid="{7183F7C2-6A35-4915-BEC8-D5814901A15F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CB699034-DBB1-4F53-8ED9-0ABC61D0BF64}" name="No" dataDxfId="29">
+      <calculatedColumnFormula>ROW()-ROW($B$23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5ADB4C8E-809D-456A-95F6-609A18948BA1}" name="重量kg(in)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{2BE489E8-0BF7-4AEE-9377-05525A369BA7}" name="荷物サイズ(out)" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{4B652E3A-65B9-47AC-9577-665DDB636661}" name="テーブル1517313330" displayName="テーブル1517313330" ref="F30:H37" totalsRowShown="0">
+  <autoFilter ref="F30:H37" xr:uid="{4B652E3A-65B9-47AC-9577-665DDB636661}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9F162519-E25F-47A3-9A6F-15574F964F9B}" name="No" dataDxfId="26">
+      <calculatedColumnFormula>ROW()-ROW($A$30)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B079A9E0-297F-4629-9990-73C320BD8DB8}" name="重量kg(in)" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B3CA2884-308B-4364-ABFF-2ED826BF83C9}" name="荷物サイズ(out)" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{39C79123-D7B8-48E8-95DE-09B83C0EC1F6}" name="テーブル151736" displayName="テーブル151736" ref="B20:D23" totalsRowShown="0">
+  <autoFilter ref="B20:D23" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7C14FE03-AD4F-4E34-B22A-A8693B8C73CD}" name="No" dataDxfId="17">
+      <calculatedColumnFormula>ROW()-ROW($B$20)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8BF231B5-F481-4ADD-817D-95CB5BE2F9D6}" name="部署コード(in)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{7B6DD7BC-5AC1-4F8B-BCD4-6BA1AC78513C}" name="部署名(out)" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{1A65E400-E1FD-4BF3-A860-1B0E1A5E59DD}" name="テーブル15173137" displayName="テーブル15173137" ref="B27:D32" totalsRowShown="0">
+  <autoFilter ref="B27:D32" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D7DC3D9-C9D5-4471-B8D5-A903432C7422}" name="No" dataDxfId="12">
+      <calculatedColumnFormula>ROW()-ROW($B$27)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4DA95AAF-219D-41D3-B604-28201B990C08}" name="部署コード(in)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D945F7BF-6880-42EB-881C-2AD90AC86A07}" name="部署名(out)" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{D561CBD5-0EBD-4ECB-A6A5-2B593690FDBD}" name="テーブル15173638" displayName="テーブル15173638" ref="L20:N24" totalsRowShown="0">
+  <autoFilter ref="L20:N24" xr:uid="{D561CBD5-0EBD-4ECB-A6A5-2B593690FDBD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B39B056C-088C-4E04-A59C-7ED616A4141C}" name="No" dataDxfId="11">
+      <calculatedColumnFormula>ROW()-ROW($B$20)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{42146D67-7C51-40F0-AB28-33354A211870}" name="部署コード(in)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2FA4FF9E-904E-4EFB-A9C1-C6D3A5CD3D8B}" name="部署名(out)" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1D6545A0-5B91-493C-AD42-03075ECBC899}" name="テーブル1517" displayName="テーブル1517" ref="B14:D16" totalsRowShown="0">
+  <autoFilter ref="B14:D16" xr:uid="{3CD281AF-395C-4897-AC33-C474029C060A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B12DC9B1-93D3-470C-8546-1BC4C16723DC}" name="No" dataDxfId="23">
+      <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6C51A0FB-7A67-4E54-BE55-8438F0EAE427}" name="長さm(in)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5E9D94F6-B9F1-4153-B156-8CB8B7465FD1}" name="単価(out)" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}" name="テーブル151731" displayName="テーブル151731" ref="B21:D23" totalsRowShown="0">
   <autoFilter ref="B21:D23" xr:uid="{F0028DAF-053B-4D66-96C5-A0D373B7DF09}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E4E84DB8-0867-43E8-AF1C-931E92A30C8F}" name="No" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{E4E84DB8-0867-43E8-AF1C-931E92A30C8F}" name="No" dataDxfId="20">
       <calculatedColumnFormula>ROW()-ROW($B$14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0A074C4E-74AA-4374-960B-FE7A35403642}" name="長さm(in)" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{8ECE7D09-59E5-408B-B22C-648D369B615F}" name="単価(out)" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{0A074C4E-74AA-4374-960B-FE7A35403642}" name="長さm(in)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{8ECE7D09-59E5-408B-B22C-648D369B615F}" name="単価(out)" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}" name="テーブル11" displayName="テーブル11" ref="B30:F37" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
   <autoFilter ref="B30:F37" xr:uid="{C11910BC-184E-4332-B793-A1E385D20DB6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6219FAF4-DA54-4BE7-97B9-07D36F876D0E}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$30)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{EC98522C-3D8E-4DD6-B87D-409F88E221B9}" name="室温(in)" dataDxfId="86"/>
     <tableColumn id="3" xr3:uid="{D9D17648-3E52-4DBD-BB1E-67C5668B8499}" name="表示メッセージ(out)"/>
     <tableColumn id="4" xr3:uid="{B2E41ED7-0E9D-4D8A-A56B-56F10FD44B1F}" name="結果"/>
     <tableColumn id="5" xr3:uid="{09DFD186-C2B6-401A-9DE1-EE48A0F1CC16}" name="判定"/>
@@ -3356,7 +4148,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$11)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{509FF755-38B7-4704-8133-8203910F9DC6}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{5B1C2B34-28F3-49AE-BD5E-80047728D72E}" name="表示(expect)" dataDxfId="85"/>
     <tableColumn id="4" xr3:uid="{81D872D7-0C78-48BE-8E0D-F49E5ADEA4C4}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{D7E810B1-C407-4ADD-AE73-D746F35BAF37}" name="判定"/>
   </tableColumns>
@@ -3372,7 +4164,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{96075308-0A9A-4771-9918-E4375128EC9C}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{84D878E5-2FDF-4D87-8A9E-5BA6789A6EF1}" name="表示(expect)" dataDxfId="84"/>
     <tableColumn id="4" xr3:uid="{71723126-7D38-4715-8425-73F196F29CE3}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{FE403B6F-9D92-46B1-AC0A-084378B3C35E}" name="判定"/>
   </tableColumns>
@@ -3381,14 +4173,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}" name="テーブル6" displayName="テーブル6" ref="B24:F31" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="B24:F31" xr:uid="{244A984B-0EAC-4F01-9A65-701EB429C976}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0BA013CA-4130-4F4E-A721-13292B5A4570}" name="No">
       <calculatedColumnFormula>ROW()-ROW($B$24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F79312B0-D1C4-4792-BB9D-228ACEDBF5C7}" name="重さ(in)"/>
-    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{CCCDEFC8-1A47-4AD8-AF39-6B8C21456BDE}" name="表示(expect)" dataDxfId="80"/>
     <tableColumn id="4" xr3:uid="{2934A5AF-26C9-4011-B6C3-A0F20ADE55B8}" name="結果(actual)"/>
     <tableColumn id="5" xr3:uid="{826AF35A-3D39-41A3-8B7C-56914B52731B}" name="判定"/>
   </tableColumns>
@@ -3420,7 +4212,7 @@
       <calculatedColumnFormula>ROW()-ROW($B$12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{71CFCE00-D5F7-4BC4-BEF8-BF79942B29D6}" name="畳数(in)"/>
-    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{C96620E3-D3DF-4C5A-BA11-E4FA5869CEE2}" name="表示メッセージ(out)" dataDxfId="79"/>
     <tableColumn id="4" xr3:uid="{19A8E784-4DCC-42E2-AA06-D92334451B79}" name="結果"/>
     <tableColumn id="5" xr3:uid="{E283681A-8B7C-4EAC-BA5F-E90D7A3D592E}" name="判定"/>
   </tableColumns>
@@ -3769,13 +4561,24 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
+  <threadedComment ref="C42" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{8A40F7FB-1A70-4127-97BE-4707112D82A1}">
     <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C28" dT="2022-03-19T08:39:11.10" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{D6C5B702-6F22-4CAC-847A-A7F1DB906E8A}">
+    <text>要らんらしい</text>
+  </threadedComment>
+  <threadedComment ref="C36" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{7C1DB226-B2CE-4FC0-8093-ABDE30867407}">
+    <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C28" dT="2022-02-25T14:14:52.79" personId="{FFF8273E-A4B7-43E5-A29E-68B51675B7FF}" id="{916FBF0B-05A3-4D9C-BADF-A7E86A78C2D1}">
     <text>100行目までは背景色の条件付き書式を付けてるので足りない場合は拡張する</text>
@@ -4127,7 +4930,7 @@
   <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4138,12 +4941,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
-        <v>1.9肉</v>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.10</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
-        <v>屋の特売日</v>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>肉屋の特売日~A社のソースコード</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -4536,7 +5339,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B26:F98">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B26)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4555,7 +5358,7 @@
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4566,12 +5369,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
-        <v>1.9肉</v>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.11</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
-        <v>屋の特売日</v>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>肉屋の特売日~B社のソースコード</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -4650,7 +5453,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" ref="B16:B22" si="1">ROW()-ROW($B$13)</f>
         <v>3</v>
       </c>
       <c r="C16" s="21">
@@ -4664,7 +5467,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C17" s="21">
@@ -4678,7 +5481,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C18" s="21">
@@ -4692,7 +5495,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C19" s="21">
@@ -4706,7 +5509,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C20" s="21">
@@ -4720,7 +5523,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C21" s="21">
@@ -4734,7 +5537,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="47">
-        <f>ROW()-ROW($B$13)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C22" s="21">
@@ -4803,7 +5606,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:F97">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B27)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4817,289 +5620,3046 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED539E7-560B-4065-AE6F-BB3B9AB27B50}">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:U162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.12</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>配達便の料金体系</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <f t="shared" ref="B24:B25" si="0">ROW()-ROW($B$23)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>30</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F27" si="1">ROW()-ROW($B$23)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="21">
+        <v>70</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="21">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="47">
+        <f>ROW()-ROW($B$23)</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="21">
+        <v>90</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="47">
+        <f>ROW()-ROW($B$23)</f>
+        <v>4</v>
+      </c>
+      <c r="C27" s="21">
+        <v>150</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="21">
+        <v>15</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <f t="shared" ref="B31:B37" si="2">ROW()-ROW($A$30)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F37" si="3">ROW()-ROW($A$30)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="21">
+        <v>60</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="21">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C33" s="21">
+        <v>61</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="21">
+        <v>3</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="47">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="21">
+        <v>80</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="21">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C35" s="21">
+        <v>81</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G35" s="21">
+        <v>6</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="47">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="21">
+        <v>100</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G36" s="21">
+        <v>10</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>101</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G37" s="21">
+        <v>11</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="47"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="46" t="str">
+        <f>B$23</f>
+        <v>No</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>172</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="M41" s="49"/>
+      <c r="P41" t="s">
+        <v>173</v>
+      </c>
+      <c r="S41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" cm="1">
+        <f t="array" ref="B42:B162">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(L42))*ROWS(_xlfn.ANCHORARRAY(S42)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="20" cm="1">
+        <f t="array" ref="C42:C162">_xlfn.XLOOKUP(_xlfn.FLOOR.MATH((_xlfn.ANCHORARRAY(B42)-1)/ROWS(_xlfn.ANCHORARRAY(L42))),_xlfn.ANCHORARRAY(N42),L42:L52)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="20" cm="1">
+        <f t="array" ref="D42:D162">_xlfn.XLOOKUP(MOD((_xlfn.ANCHORARRAY(B42)-1),ROWS(_xlfn.ANCHORARRAY(L42))),_xlfn.ANCHORARRAY(U42),S42:S52)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="20" t="str" cm="1">
+        <f t="array" ref="E42:E162">_xlfn.LET(_xlpm.length,_xlfn.FLOOR.MATH((_xlfn.ANCHORARRAY(B42)-1)/ROWS(_xlfn.ANCHORARRAY(L42))),_xlpm.weight,MOD((_xlfn.ANCHORARRAY(B42)-1),ROWS(_xlfn.ANCHORARRAY(L42))),_xlfn.XLOOKUP(IF(_xlpm.length&gt;_xlpm.weight,_xlpm.length,_xlpm.weight),_xlfn.ANCHORARRAY(N42),M42:M52))</f>
+        <v>60サイズ</v>
+      </c>
+      <c r="I42" s="21" cm="1">
+        <f t="array" ref="I42:J52">_xlfn.LET(_xlpm.area,テーブル151732[[3辺合計cm(in)]:[荷物サイズ(out)]]:テーブル15173133[[3辺合計cm(in)]:[荷物サイズ(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151732[[#Headers],[3辺合計cm(in)]])))</f>
+        <v>30</v>
+      </c>
+      <c r="J42" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="L42" s="48" cm="1">
+        <f t="array" ref="L42:M52">_xlfn.SORTBY(_xlfn.ANCHORARRAY(I42),_xlfn.ANCHORARRAY(I42) I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="N42" cm="1">
+        <f t="array" ref="N42:N52">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(L42)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="21" cm="1">
+        <f t="array" ref="P42:Q52">_xlfn.LET(_xlpm.area,テーブル15173227[[重量kg(in)]:[荷物サイズ(out)]]:テーブル1517313330[[重量kg(in)]:[荷物サイズ(out)]],_xlpm.in,_xlpm.area G:G,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル15173227[[#Headers],[重量kg(in)]])))</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="S42" s="48" cm="1">
+        <f t="array" ref="S42:T52">_xlfn.SORTBY(_xlfn.ANCHORARRAY(P42),_xlfn.ANCHORARRAY(P42) P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="U42" cm="1">
+        <f t="array" ref="U42:U52">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(S42)),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="20">
+        <v>2</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="L43" s="48">
+        <v>30</v>
+      </c>
+      <c r="M43" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="S43" s="48">
+        <v>1</v>
+      </c>
+      <c r="T43" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="20">
+        <v>3</v>
+      </c>
+      <c r="C44" s="20">
+        <v>0</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44" s="20" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="I44">
+        <v>90</v>
+      </c>
+      <c r="J44" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="L44" s="48">
+        <v>60</v>
+      </c>
+      <c r="M44" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="S44" s="48">
+        <v>2</v>
+      </c>
+      <c r="T44" s="48" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="20">
+        <v>4</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3</v>
+      </c>
+      <c r="E45" s="20" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="I45">
+        <v>150</v>
+      </c>
+      <c r="J45" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="L45" s="48">
+        <v>61</v>
+      </c>
+      <c r="M45" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>15</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="S45" s="48">
+        <v>3</v>
+      </c>
+      <c r="T45" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="20">
+        <v>5</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <v>4</v>
+      </c>
+      <c r="E46" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="L46" s="48">
+        <v>70</v>
+      </c>
+      <c r="M46" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="S46" s="48">
+        <v>4</v>
+      </c>
+      <c r="T46" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="20">
+        <v>6</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20">
+        <v>5</v>
+      </c>
+      <c r="E47" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="L47" s="48">
+        <v>80</v>
+      </c>
+      <c r="M47" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>60サイズ</v>
+      </c>
+      <c r="S47" s="48">
+        <v>5</v>
+      </c>
+      <c r="T47" s="48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="20">
+        <v>7</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0</v>
+      </c>
+      <c r="D48" s="20">
+        <v>6</v>
+      </c>
+      <c r="E48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="I48">
+        <v>61</v>
+      </c>
+      <c r="J48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="L48" s="48">
+        <v>81</v>
+      </c>
+      <c r="M48" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="S48" s="48">
+        <v>6</v>
+      </c>
+      <c r="T48" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="20">
+        <v>8</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <v>8</v>
+      </c>
+      <c r="E49" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="I49">
+        <v>80</v>
+      </c>
+      <c r="J49" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="L49" s="48">
+        <v>90</v>
+      </c>
+      <c r="M49" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>80サイズ</v>
+      </c>
+      <c r="S49" s="48">
+        <v>8</v>
+      </c>
+      <c r="T49" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="U49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="20">
+        <v>9</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="I50">
+        <v>81</v>
+      </c>
+      <c r="J50" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="L50" s="48">
+        <v>100</v>
+      </c>
+      <c r="M50" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="S50" s="48">
+        <v>10</v>
+      </c>
+      <c r="T50" s="48" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="U50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="20">
+        <v>10</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0</v>
+      </c>
+      <c r="D51" s="20">
+        <v>11</v>
+      </c>
+      <c r="E51" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="L51" s="48">
+        <v>101</v>
+      </c>
+      <c r="M51" s="48" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="N51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>100サイズ</v>
+      </c>
+      <c r="S51" s="48">
+        <v>11</v>
+      </c>
+      <c r="T51" s="48" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="U51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="20">
+        <v>11</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <v>15</v>
+      </c>
+      <c r="E52" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="I52">
+        <v>101</v>
+      </c>
+      <c r="J52" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="L52" s="48">
+        <v>150</v>
+      </c>
+      <c r="M52" s="48" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="S52" s="48">
+        <v>15</v>
+      </c>
+      <c r="T52" s="48" t="str">
+        <v>エラー</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="20">
+        <v>12</v>
+      </c>
+      <c r="C53" s="20">
+        <v>30</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="20">
+        <v>13</v>
+      </c>
+      <c r="C54" s="20">
+        <v>30</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="str">
+        <v>60サイズ</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>60</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>60</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73">
+        <v>32</v>
+      </c>
+      <c r="C73">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>61</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>61</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>61</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>61</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>61</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>61</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>61</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>42</v>
+      </c>
+      <c r="C83">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>61</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="E84" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>44</v>
+      </c>
+      <c r="C85">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>70</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>46</v>
+      </c>
+      <c r="C87">
+        <v>70</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>47</v>
+      </c>
+      <c r="C88">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89">
+        <v>48</v>
+      </c>
+      <c r="C89">
+        <v>70</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>70</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91">
+        <v>50</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <v>51</v>
+      </c>
+      <c r="C92">
+        <v>70</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93">
+        <v>52</v>
+      </c>
+      <c r="C93">
+        <v>70</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94">
+        <v>53</v>
+      </c>
+      <c r="C94">
+        <v>70</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>54</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>55</v>
+      </c>
+      <c r="C96">
+        <v>70</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97">
+        <v>56</v>
+      </c>
+      <c r="C97">
+        <v>80</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98">
+        <v>57</v>
+      </c>
+      <c r="C98">
+        <v>80</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99">
+        <v>58</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100">
+        <v>59</v>
+      </c>
+      <c r="C100">
+        <v>80</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101">
+        <v>60</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102">
+        <v>61</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="str">
+        <v>80サイズ</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103">
+        <v>62</v>
+      </c>
+      <c r="C103">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104">
+        <v>63</v>
+      </c>
+      <c r="C104">
+        <v>80</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105">
+        <v>64</v>
+      </c>
+      <c r="C105">
+        <v>80</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106">
+        <v>65</v>
+      </c>
+      <c r="C106">
+        <v>80</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
+      </c>
+      <c r="E106" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107">
+        <v>66</v>
+      </c>
+      <c r="C107">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+      <c r="E107" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108">
+        <v>67</v>
+      </c>
+      <c r="C108">
+        <v>81</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109">
+        <v>68</v>
+      </c>
+      <c r="C109">
+        <v>81</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110">
+        <v>69</v>
+      </c>
+      <c r="C110">
+        <v>81</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111">
+        <v>70</v>
+      </c>
+      <c r="C111">
+        <v>81</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112">
+        <v>71</v>
+      </c>
+      <c r="C112">
+        <v>81</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113">
+        <v>72</v>
+      </c>
+      <c r="C113">
+        <v>81</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114">
+        <v>73</v>
+      </c>
+      <c r="C114">
+        <v>81</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115">
+        <v>74</v>
+      </c>
+      <c r="C115">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116">
+        <v>75</v>
+      </c>
+      <c r="C116">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117">
+        <v>76</v>
+      </c>
+      <c r="C117">
+        <v>81</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+      <c r="E117" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118">
+        <v>77</v>
+      </c>
+      <c r="C118">
+        <v>81</v>
+      </c>
+      <c r="D118">
+        <v>15</v>
+      </c>
+      <c r="E118" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119">
+        <v>78</v>
+      </c>
+      <c r="C119">
+        <v>90</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120">
+        <v>79</v>
+      </c>
+      <c r="C120">
+        <v>90</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121">
+        <v>80</v>
+      </c>
+      <c r="C121">
+        <v>90</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122">
+        <v>81</v>
+      </c>
+      <c r="C122">
+        <v>90</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123">
+        <v>82</v>
+      </c>
+      <c r="C123">
+        <v>90</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124">
+        <v>83</v>
+      </c>
+      <c r="C124">
+        <v>90</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125">
+        <v>84</v>
+      </c>
+      <c r="C125">
+        <v>90</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126">
+        <v>85</v>
+      </c>
+      <c r="C126">
+        <v>90</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>90</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128">
+        <v>87</v>
+      </c>
+      <c r="C128">
+        <v>90</v>
+      </c>
+      <c r="D128">
+        <v>11</v>
+      </c>
+      <c r="E128" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129">
+        <v>88</v>
+      </c>
+      <c r="C129">
+        <v>90</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+      <c r="E129" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130">
+        <v>89</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131">
+        <v>90</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132">
+        <v>91</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133">
+        <v>92</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134">
+        <v>93</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135">
+        <v>94</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136">
+        <v>95</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137">
+        <v>96</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138">
+        <v>97</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>10</v>
+      </c>
+      <c r="E138" t="str">
+        <v>100サイズ</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139">
+        <v>98</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>11</v>
+      </c>
+      <c r="E139" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140">
+        <v>99</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>15</v>
+      </c>
+      <c r="E140" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141">
+        <v>100</v>
+      </c>
+      <c r="C141">
+        <v>101</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142">
+        <v>101</v>
+      </c>
+      <c r="C142">
+        <v>101</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143">
+        <v>102</v>
+      </c>
+      <c r="C143">
+        <v>101</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144">
+        <v>103</v>
+      </c>
+      <c r="C144">
+        <v>101</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145">
+        <v>104</v>
+      </c>
+      <c r="C145">
+        <v>101</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146">
+        <v>105</v>
+      </c>
+      <c r="C146">
+        <v>101</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147">
+        <v>106</v>
+      </c>
+      <c r="C147">
+        <v>101</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148">
+        <v>107</v>
+      </c>
+      <c r="C148">
+        <v>101</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
+      </c>
+      <c r="E148" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149">
+        <v>108</v>
+      </c>
+      <c r="C149">
+        <v>101</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150">
+        <v>109</v>
+      </c>
+      <c r="C150">
+        <v>101</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+      <c r="E150" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151">
+        <v>110</v>
+      </c>
+      <c r="C151">
+        <v>101</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+      <c r="E151" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152">
+        <v>111</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153">
+        <v>112</v>
+      </c>
+      <c r="C153">
+        <v>150</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154">
+        <v>113</v>
+      </c>
+      <c r="C154">
+        <v>150</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155">
+        <v>114</v>
+      </c>
+      <c r="C155">
+        <v>150</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156">
+        <v>115</v>
+      </c>
+      <c r="C156">
+        <v>150</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157">
+        <v>116</v>
+      </c>
+      <c r="C157">
+        <v>150</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158">
+        <v>117</v>
+      </c>
+      <c r="C158">
+        <v>150</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159">
+        <v>118</v>
+      </c>
+      <c r="C159">
+        <v>150</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160">
+        <v>119</v>
+      </c>
+      <c r="C160">
+        <v>150</v>
+      </c>
+      <c r="D160">
+        <v>10</v>
+      </c>
+      <c r="E160" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161">
+        <v>120</v>
+      </c>
+      <c r="C161">
+        <v>150</v>
+      </c>
+      <c r="D161">
+        <v>11</v>
+      </c>
+      <c r="E161" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162">
+        <v>121</v>
+      </c>
+      <c r="C162">
+        <v>150</v>
+      </c>
+      <c r="D162">
+        <v>15</v>
+      </c>
+      <c r="E162" t="str">
+        <v>エラー</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B42:G200">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B42)=FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="5">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F5D81-1445-47C5-AA4D-04751D28E8A2}">
+  <dimension ref="B2:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="10.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:3">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
-        <v>1.9肉</v>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),4)</f>
+        <v>1.13</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
-        <v>屋の特売日</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-4))</f>
+        <v>経理システムに入力する部署コード</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15">
-        <f t="shared" ref="B15:B16" si="0">ROW()-ROW($B$14)</f>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21">
+        <f t="shared" ref="B21:B22" si="0">ROW()-ROW($B$20)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C21" s="21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16">
+      <c r="H21" s="12"/>
+      <c r="L21">
+        <f t="shared" ref="L21:L22" si="1">ROW()-ROW($B$20)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="21">
+        <v>100</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C22" s="21">
+        <v>120</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="12"/>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="21">
+        <v>101</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="47">
+        <f>ROW()-ROW($B$20)</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="47">
+        <f>ROW()-ROW($B$20)</f>
+        <v>3</v>
+      </c>
+      <c r="M23" s="21">
+        <v>960</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="C24" s="21"/>
+      <c r="L24" s="47">
+        <f>ROW()-ROW($B$20)</f>
+        <v>4</v>
+      </c>
+      <c r="M24" s="21">
+        <v>999</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="C25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="50">
+        <f t="shared" ref="B28:B29" si="2">ROW()-ROW($B$27)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="51">
+        <v>0</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="21">
+        <v>99</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="47">
+        <f>ROW()-ROW($B$27)</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="21">
+        <v>100</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="47">
+        <f>ROW()-ROW($B$27)</f>
+        <v>4</v>
+      </c>
+      <c r="C31" s="21">
+        <v>999</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="47">
+        <f>ROW()-ROW($B$27)</f>
         <v>5</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
+      <c r="C32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="46" t="str">
+        <f>B$20</f>
+        <v>No</v>
+      </c>
+      <c r="C35" s="46" t="str">
+        <f t="shared" ref="C35:D35" si="3">C$20</f>
+        <v>部署コード(in)</v>
+      </c>
+      <c r="D35" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v>部署名(out)</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="50" cm="1">
+        <f t="array" ref="B36:B43">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C36)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="53" cm="1">
+        <f t="array" ref="C36:D43">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H36),_xlfn.ANCHORARRAY(H36) H:H)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="53" t="str">
+        <v>-</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="H36" s="2" cm="1">
+        <f t="array" ref="H36:I43">_xlfn.LET(_xlpm.area,テーブル151736[[部署コード(in)]:[部署名(out)]]:テーブル15173137[[部署コード(in)]:[部署名(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151736[[#Headers],[部署コード(in)]])))</f>
+        <v>15</v>
+      </c>
+      <c r="I36" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="20">
+        <v>2</v>
+      </c>
+      <c r="C37" s="20">
+        <v>15</v>
+      </c>
+      <c r="D37" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H37">
+        <v>120</v>
+      </c>
+      <c r="I37" t="str">
+        <v>本店経理部</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="20">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22">
-        <f t="shared" ref="B22:B23" si="1">ROW()-ROW($B$14)</f>
+      <c r="C38" s="20">
+        <v>99</v>
+      </c>
+      <c r="D38" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H38">
+        <v>1200</v>
+      </c>
+      <c r="I38" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="20">
+        <v>4</v>
+      </c>
+      <c r="C39" s="20">
+        <v>100</v>
+      </c>
+      <c r="D39" s="20" t="str">
+        <v>本店総務部</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="20">
+        <v>5</v>
+      </c>
+      <c r="C40" s="20">
+        <v>120</v>
+      </c>
+      <c r="D40" s="20" t="str">
+        <v>本店経理部</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40">
+        <v>99</v>
+      </c>
+      <c r="I40" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="20">
+        <v>6</v>
+      </c>
+      <c r="C41" s="20">
+        <v>999</v>
+      </c>
+      <c r="D41" s="20" t="str">
+        <v>該当する部署名がありません</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41" t="str">
+        <v>本店総務部</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="20">
+        <v>7</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H42">
+        <v>999</v>
+      </c>
+      <c r="I42" t="str">
+        <v>該当する部署名がありません</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="20">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="2">
-        <v>100</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="46" t="str">
-        <f>B$14</f>
-        <v>No</v>
-      </c>
-      <c r="C27" s="46" t="str">
-        <f t="shared" ref="C27:D27" si="2">C$14</f>
-        <v>長さm(in)</v>
-      </c>
-      <c r="D27" s="46" t="str">
-        <f t="shared" si="2"/>
-        <v>単価(out)</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" cm="1">
-        <f t="array" ref="B28:B31">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(C28)),1)</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="20" cm="1">
-        <f t="array" ref="C28:D31">_xlfn.SORTBY(_xlfn.ANCHORARRAY(H28),_xlfn.ANCHORARRAY(H28) H:H)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="str">
+      <c r="C43" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D43" s="20" t="str">
         <v>-</v>
       </c>
-      <c r="H28" s="2" cm="1">
-        <f t="array" ref="H28:I31">_xlfn.LET(_xlpm.area,テーブル151732[[長さm(in)]:[単価(out)]]:テーブル15173133[[長さm(in)]:[単価(out)]],_xlpm.in,_xlpm.area C:C,_xlfn._xlws.FILTER(_xlpm.area,(ISBLANK(_xlpm.in)=FALSE)*(_xlpm.in&lt;&gt;テーブル151732[[#Headers],[長さm(in)]])))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" t="str">
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="str">
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="20">
-        <v>2</v>
-      </c>
-      <c r="C29" s="20">
-        <v>3</v>
-      </c>
-      <c r="D29" s="20" t="str">
-        <v>-</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="20">
-        <v>3</v>
-      </c>
-      <c r="C30" s="20">
-        <v>5</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="20">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20">
-        <v>100</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+    <row r="44" spans="2:9">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B28:F100">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B28)=FALSE)</formula>
+  <conditionalFormatting sqref="B36:F108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(MOD(ROW(),2)=0,ISBLANK($B36)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB7C1E-F495-4E25-94DF-5F1EEF638EDD}">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -5111,12 +8671,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
-        <v>1.9</v>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <v>1.x</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
-        <v>肉屋の特売日</v>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <v>ひな形</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -8193,7 +11753,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B27:F93">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B27)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8211,7 +11771,7 @@
   <dimension ref="B2:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8222,12 +11782,12 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
-        <v>1.9</v>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <v>1.8</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
-        <v>肉屋の特売日</v>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <v>BMI値で栄養状態を判定</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -9865,7 +13425,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B51:F123">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B51)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9884,7 +13444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95603BCA-E4BD-4E01-BC9B-F5A376AFCF58}">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
@@ -9896,11 +13456,11 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
+        <f t="array" aca="1" ref="B2" ca="1">LEFT(_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname))),3)</f>
         <v>1.9</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename"),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
+        <f t="array" aca="1" ref="C2" ca="1">_xlfn.LET(_xlpm.fname,CELL("filename",A1),RIGHT(_xlpm.fname,LEN(_xlpm.fname)-FIND("]",_xlpm.fname)-3))</f>
         <v>肉屋の特売日</v>
       </c>
     </row>
@@ -10057,7 +13617,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" ref="B22:B28" si="2">ROW()-ROW($B$19)</f>
         <v>3</v>
       </c>
       <c r="C22" s="21">
@@ -10069,7 +13629,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C23" s="21">
@@ -10081,7 +13641,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C24" s="21">
@@ -10093,7 +13653,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C25" s="21">
@@ -10105,7 +13665,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C26" s="21">
@@ -10117,7 +13677,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C27" s="21">
@@ -10129,7 +13689,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="47">
-        <f>ROW()-ROW($B$19)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C28" s="21">
@@ -10153,11 +13713,11 @@
         <v>No</v>
       </c>
       <c r="C31" s="46" t="str">
-        <f t="shared" ref="C31:D31" si="2">C$10</f>
+        <f t="shared" ref="C31:D31" si="3">C$10</f>
         <v>日(in)</v>
       </c>
       <c r="D31" s="46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>割引率(out)</v>
       </c>
       <c r="E31" s="46" t="s">
@@ -10432,12 +13992,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B32:D104">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B32)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F104">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(MOD(ROW(),2)=0,ISBLANK($B32)=FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
